--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -11,36 +11,482 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="93">
+  <si>
+    <t>Чек-лист для проверки валидации полей формы "Добавить карточку клиента на дашборд"</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Описание проверки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Результат </t>
+  </si>
+  <si>
+    <t>поле Имя</t>
+  </si>
+  <si>
+    <t>В стартовом состоянии в поле есть плейсхолдер "Введите имя"</t>
+  </si>
+  <si>
+    <t>TO DO</t>
+  </si>
+  <si>
+    <t>Поле названо "Имя", название поле расположено над ним слева вверху</t>
+  </si>
+  <si>
+    <t>Взять поле в фокус - в поле отображается курсор ввода</t>
+  </si>
+  <si>
+    <t>Снять фокус с поля, оставив его незаполненным - фокус с поля снят, курсор ввода не отображается</t>
+  </si>
+  <si>
+    <t>Ввести кириллицу - ввод кириллицы доступен</t>
+  </si>
+  <si>
+    <t>Ввести латиницу - ввод не доступен</t>
+  </si>
+  <si>
+    <t>Ввести цифры - ввод не доступен</t>
+  </si>
+  <si>
+    <t>Ввести спецсимволы - ввод не доступен</t>
+  </si>
+  <si>
+    <t>Зполнить поле только пробелами - поле считается незаполненным</t>
+  </si>
+  <si>
+    <t>Ввести больше 30 символов, снять фокус с поля - поле выделено красным, под полем тект ошибки "Можно ввести не более 30 символов"</t>
+  </si>
+  <si>
+    <t>Ввести 30 символов, снять фокус с поля - Введено 30 символов, значение задано в поле</t>
+  </si>
+  <si>
+    <t>Ввести 29 символов, снять фокус с поля - Введено 29 символов, значение задано в поле</t>
+  </si>
+  <si>
+    <t>Ввести 1 символ, снять фокус с поля - Введен 1 символ, значение задано в поле</t>
+  </si>
+  <si>
+    <t>Ввести 10 символов, снять фокус с поля - Введено 10 символов, значение задано в поле</t>
+  </si>
+  <si>
+    <t>Использовать верхний регистр - значение задается в поле</t>
+  </si>
+  <si>
+    <t>поле Фамилия</t>
+  </si>
+  <si>
+    <t>В стартовом состоянии в поле есть плейсхолдер "Введите фамилию"</t>
+  </si>
+  <si>
+    <t>Поле названо "Фамилия", название поле расположено над ним слева вверху</t>
+  </si>
+  <si>
+    <t>Попробовать ввести больше 30 символов, снять фокус с поля - поле выделено красным, под полем тект ошибки "Можно ввести не более 30 символов"</t>
+  </si>
+  <si>
+    <t>поле Дата рождения</t>
+  </si>
+  <si>
+    <t>В стартовом состоянии в поле есть плейсхолдер "дд.мм.гггг"</t>
+  </si>
+  <si>
+    <t>Поле названо "Дата рождения", название поле расположено над ним слева вверху</t>
+  </si>
+  <si>
+    <t>Ввести кириллицу - ввод кириллицы недоступен</t>
+  </si>
+  <si>
+    <t>Ввести латиницу - ввод недоступен</t>
+  </si>
+  <si>
+    <t>Ввести цифры - цифры можно ввести</t>
+  </si>
+  <si>
+    <t>Ввести некорректные даты(13-ый месяц, 38- ое число) - дата сбрасывается до ближайшей корректной</t>
+  </si>
+  <si>
+    <t>Ввести неполную дату (только день, день и месяц без года)- значение не установлено в поле</t>
+  </si>
+  <si>
+    <t>Ввести дату рождения удаленную от текущей &gt; на 18 лет - значение установлено в поле</t>
+  </si>
+  <si>
+    <t>Ввести дату рождения удаленную от текущей ровно на 18 лет - значение установлено в поле</t>
+  </si>
+  <si>
+    <t>Ввести дату рождения удаленную от текущей &lt;  18 лет - поле выделено красным, под полем текст ошибки "Пользователь должен быть старше 18 лет"</t>
+  </si>
+  <si>
+    <t>В парвой части поля есть иконка "календарь"</t>
+  </si>
+  <si>
+    <t>Кликнуть на иконку "календарь" - открывается календарь для выбора даты вручную</t>
+  </si>
+  <si>
+    <t>Выбрать дату удаленную от текущей &gt; на 18 лет - значение установлено в поле, календарь закрывается</t>
+  </si>
+  <si>
+    <t>Выбрать дату удаленную от текущей ровно на 18 лет - значение установлено в поле, календарь закрывается</t>
+  </si>
+  <si>
+    <t>Выбрать дату удаленную от текущей &lt;  18 лет - выбор даты удаленной от текущей менее чем на 18 лет заблокирован</t>
+  </si>
+  <si>
+    <t>поле Email</t>
+  </si>
+  <si>
+    <t>В стартовом состоянии в поле есть плейсхолдер "Введите email"</t>
+  </si>
+  <si>
+    <t>Поле названо "Email", название поле расположено над ним слева вверху</t>
+  </si>
+  <si>
+    <t>Ввести только локальную часть email, снять фокус с поля - значение установлено в поле, поле выделено красным, под полем текст "Некорректный email"</t>
+  </si>
+  <si>
+    <t>Ввести только доменную часть email, снять фокус с поля - значение установлено в поле, поле выделено красным, под полем текст "Некорректный email"</t>
+  </si>
+  <si>
+    <t>Ввести локальную и доменную части без разделителя "@", снять фокус с поля - значение установлено в поле, поле выделено красным, под полем текст "Некорректный email"</t>
+  </si>
+  <si>
+    <t>Использовать разделитель отличный от "@" между локальной и доменной частью, снять фокус с поля значение установлено в поле, поле выделено красным, под полем текст "Некорректный email"</t>
+  </si>
+  <si>
+    <t>Ввести локальную и доменную части без разделителя в доменной части "." - значение установлено в поле, поле выделено красным, под полем текст "Некорректный email"</t>
+  </si>
+  <si>
+    <t>Использовать разделитель отличный от "." в доменной части, снять фокус с поля значение установлено в поле, поле выделено красным, под полем текст "Некорректный email"</t>
+  </si>
+  <si>
+    <t>Использовать в локальной части пробел, доменную заполнить корректно, снять фокус с поля - значение установлено в поле, поле выделено красным, под полем текст "Некорректный email"</t>
+  </si>
+  <si>
+    <t>Использовать в локальной части верхний регистр, доменную заполнить в нижнем регистре и корректно, снять фокус с поля - значение установлено в поле</t>
+  </si>
+  <si>
+    <t>Использовать в локальной части латиницу, доменную заполнить корректно, снять фокус с поля - значение установлено в поле</t>
+  </si>
+  <si>
+    <t>Использовать в локальной части кириллицу, доменную заполнить корректно, снять фокус с поля - значение установлено в поле</t>
+  </si>
+  <si>
+    <t>Использовать в локальной части спец-символы, доменную заполнить корректно, снять фокус с поля - значение установлено в поле</t>
+  </si>
+  <si>
+    <t>Использовать в локальной части цифры, доменную заполнить корректно, снять фокус с поля - значение установлено в поле</t>
+  </si>
+  <si>
+    <t>Локальную часть заполнить корректно, в первой части  доменной использовать пробелы, снять фокус с поля- значение установлено в поле, поле выделено красным, под полем текст "Некорректный email"</t>
+  </si>
+  <si>
+    <t>Локальную часть заполнить корректно, в первой части доменной использовать дефис, снять фокус с поля- значение установлено в поле</t>
+  </si>
+  <si>
+    <t>Локальную часть заполнить корректно, в первой части  доменной использовать спецсимволы кроме дефиса, снять фокус с поля- значение установлено в поле, поле выделено красным, под полем текст "Некорректный email"</t>
+  </si>
+  <si>
+    <t>Локальную часть заполнить корректно, в первой части доменной использовать латиницу, снять фокус с поля - значение установлено в поле</t>
+  </si>
+  <si>
+    <t>Локальную часть заполнить корректно, в первой части  доменной использовать кирилицу, снять фокус с поля- значение установлено в поле, поле выделено красным, под полем текст "Некорректный email"</t>
+  </si>
+  <si>
+    <t>Локальную часть заполнить корректно, в первой части доменной использовать цифры, снять фокус с поля - значение установлено в поле</t>
+  </si>
+  <si>
+    <t>Локальную часть заполнить корректно, в первой части доменной использовать латницу в верхнем регистре, снять фокус с поля- значение установлено в поле</t>
+  </si>
+  <si>
+    <t>Локальную часть заполнить корректно, в певрой части доменной использовать один разрешенный символ, снять фокус с поля- значение установлено в поле</t>
+  </si>
+  <si>
+    <t>Локальную часть заполнить корректно, в певрой части доменной использовать 2 разрешенных символа, снять фокус с поля- значение установлено в поле</t>
+  </si>
+  <si>
+    <t>Локальную часть заполнить корректно, в певрой части доменной использовать &gt; 2 разрешенных символа, снять фокус с поля- значение установлено в поле</t>
+  </si>
+  <si>
+    <t>Локальную, первую часть доменной заполнить корректно, во второй использовать 1 символ, снять фокус с поля - значение установлено в поле, поле выделено красным, под полем текст "Некорректный email"</t>
+  </si>
+  <si>
+    <t>Локальную, первую часть доменной заполнить корректно, во второй использовать 2 разрешенных символа, снять фокус с поля - значение установлено в поле</t>
+  </si>
+  <si>
+    <t>Локальную, первую часть доменной заполнить корректно, во второй использовать &gt; 2 разрешенных символа, снять фокус с поля - значение установлено в поле</t>
+  </si>
+  <si>
+    <t>Локальную, первую часть доменной заполнить корректно, во второй использовать латиницу, снять фокус с поля - значение установлено в поле</t>
+  </si>
+  <si>
+    <t>Локальную, первую часть доменной заполнить корректно, во второй использовать латиницу в верхнем регистре, снять фокус с поля - значение установлено в поле</t>
+  </si>
+  <si>
+    <t>Локальную, первую часть доменной заполнить корректно, во второй использовать кириллицу, снять фокус с поля - значение установлено в поле, поле выделено красным, под полем текст "Некорректный email"</t>
+  </si>
+  <si>
+    <t>Локальную, первую часть доменной заполнить корректно, во второй использовать цифры, снять фокус с поля - значение установлено в поле, поле выделено красным, под полем текст "Некорректный email"</t>
+  </si>
+  <si>
+    <t>Локальную, первую часть доменной заполнить корректно, во второй использовать спецсимволы, снять фокус с поля - значение установлено в поле, поле выделено красным, под полем текст "Некорректный email"</t>
+  </si>
+  <si>
+    <t>Локальную, первую часть доменной заполнить корректно, во второй использовать пробелы, снять фокус с поля - значение установлено в поле, поле выделено красным, под полем текст "Некорректный email"</t>
+  </si>
+  <si>
+    <t>Ввести уже существующий в другой карточке email - значение установлено в поле, поле выделено красным, под полем текст "карточка с таким email уже существует"</t>
+  </si>
+  <si>
+    <t>блок Пол</t>
+  </si>
+  <si>
+    <t>Блок назван "Пол", название поле расположено над ним слева вверху</t>
+  </si>
+  <si>
+    <t>Есть два радио-баттона "М" и "Ж"</t>
+  </si>
+  <si>
+    <t>В стартовом состоянии ни один из радио-баттонов не отмечен</t>
+  </si>
+  <si>
+    <t>Кликнуть на один из вариантов - отмечен вариант на который был совершен клик</t>
+  </si>
+  <si>
+    <t>Проверить, что нельзя отметить оба варианта сразу - по клику на второй снимается отметка с первого</t>
+  </si>
+  <si>
+    <t>блок Документ</t>
+  </si>
+  <si>
+    <t>Блок назван "Документ", название поле расположено над ним слева вверху</t>
+  </si>
+  <si>
+    <t>Кликунть на + в блоке - открывается окно загрузки файла</t>
+  </si>
+  <si>
+    <t>Загрузить файл в pdf размером &lt;= 3мб  - файл загружен "+" не отображается</t>
+  </si>
+  <si>
+    <t>Загрузить файл в pdf размером = 3мб  - файл загружен "+" не отображается</t>
+  </si>
+  <si>
+    <t>Загрузить файл в pdf размером, используя drag and drop &lt;= 3мб  - файл загружен "+" не отображается</t>
+  </si>
+  <si>
+    <t>Загрузить файл в формате != pdf размером &lt;= 3мб  - файл не загружен, справа от блока отображается текст ошибки "Некорректный файл. Допустимый формат: pdf. Допустимый размер файла: не более 3 мб"</t>
+  </si>
+  <si>
+    <t>Загрузить файл в формате pdf размером &gt; 3мб  - файл не загружен, справа от блока отображается текст ошибки "Некорректный файл. Допустимый формат: pdf. Допустимый размер файла: не более 3 мб"</t>
+  </si>
+  <si>
+    <t>Общие</t>
+  </si>
+  <si>
+    <t>Оставить все поля пустыми, кликнуть на добавить - все пустые поля выделены красным, окно не закрывается, под каждым пустым полем текст ошибки "поле не может быть пустым"</t>
+  </si>
+  <si>
+    <t>Проверить обязательность каждого поля по отдельности</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font/>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FFC6E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -257,7 +703,3846 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="5.75"/>
+    <col customWidth="1" min="2" max="2" width="119.63"/>
+    <col customWidth="1" min="3" max="3" width="11.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12">
+        <v>7.0</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="12">
+        <v>9.0</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="12">
+        <v>11.0</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="12">
+        <v>13.0</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="12">
+        <v>14.0</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="12">
+        <v>15.0</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="12">
+        <v>17.0</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="12">
+        <v>18.0</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="12">
+        <v>19.0</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="12">
+        <v>21.0</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="12">
+        <v>23.0</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="12">
+        <v>24.0</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="12">
+        <v>26.0</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="12">
+        <v>27.0</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="12">
+        <v>28.0</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="12">
+        <v>29.0</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12">
+        <v>30.0</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="12">
+        <v>31.0</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="12">
+        <v>32.0</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12">
+        <v>33.0</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="12">
+        <v>34.0</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12">
+        <v>35.0</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="12">
+        <v>36.0</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12">
+        <v>37.0</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="12">
+        <v>38.0</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="12">
+        <v>39.0</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="12">
+        <v>40.0</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="12">
+        <v>41.0</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="12">
+        <v>42.0</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12">
+        <v>43.0</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="12">
+        <v>44.0</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="12">
+        <v>45.0</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="12">
+        <v>46.0</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="12">
+        <v>47.0</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="12">
+        <v>48.0</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="12">
+        <v>49.0</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="12">
+        <v>50.0</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="12">
+        <v>51.0</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="12">
+        <v>52.0</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="12">
+        <v>53.0</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="12">
+        <v>54.0</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="12">
+        <v>55.0</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="12">
+        <v>56.0</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="12">
+        <v>57.0</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="12">
+        <v>58.0</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="12">
+        <v>59.0</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="12">
+        <v>60.0</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="12">
+        <v>61.0</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="12">
+        <v>62.0</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="12">
+        <v>63.0</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="12">
+        <v>64.0</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="12">
+        <v>65.0</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="12">
+        <v>66.0</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="12">
+        <v>67.0</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="12">
+        <v>68.0</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="12">
+        <v>69.0</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="12">
+        <v>70.0</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="12">
+        <v>71.0</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="12">
+        <v>72.0</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="12">
+        <v>73.0</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="12">
+        <v>74.0</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="12">
+        <v>75.0</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="12">
+        <v>76.0</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="12">
+        <v>77.0</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="12">
+        <v>78.0</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="12">
+        <v>79.0</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="12">
+        <v>80.0</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="11"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="12">
+        <v>81.0</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="12">
+        <v>82.0</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="12">
+        <v>83.0</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="12">
+        <v>84.0</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="12">
+        <v>85.0</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="11"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="12">
+        <v>86.0</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="12">
+        <v>87.0</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="12">
+        <v>88.0</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="12">
+        <v>89.0</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="12">
+        <v>90.0</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="12">
+        <v>91.0</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="12">
+        <v>92.0</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="11"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="12">
+        <v>93.0</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="12">
+        <v>94.0</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" s="17"/>
+    </row>
+    <row r="106">
+      <c r="C106" s="17"/>
+    </row>
+    <row r="107">
+      <c r="C107" s="17"/>
+    </row>
+    <row r="108">
+      <c r="C108" s="17"/>
+    </row>
+    <row r="109">
+      <c r="C109" s="17"/>
+    </row>
+    <row r="110">
+      <c r="C110" s="17"/>
+    </row>
+    <row r="111">
+      <c r="C111" s="17"/>
+    </row>
+    <row r="112">
+      <c r="C112" s="17"/>
+    </row>
+    <row r="113">
+      <c r="C113" s="17"/>
+    </row>
+    <row r="114">
+      <c r="C114" s="17"/>
+    </row>
+    <row r="115">
+      <c r="C115" s="17"/>
+    </row>
+    <row r="116">
+      <c r="C116" s="17"/>
+    </row>
+    <row r="117">
+      <c r="C117" s="17"/>
+    </row>
+    <row r="118">
+      <c r="C118" s="17"/>
+    </row>
+    <row r="119">
+      <c r="C119" s="17"/>
+    </row>
+    <row r="120">
+      <c r="C120" s="17"/>
+    </row>
+    <row r="121">
+      <c r="C121" s="17"/>
+    </row>
+    <row r="122">
+      <c r="C122" s="17"/>
+    </row>
+    <row r="123">
+      <c r="C123" s="17"/>
+    </row>
+    <row r="124">
+      <c r="C124" s="17"/>
+    </row>
+    <row r="125">
+      <c r="C125" s="17"/>
+    </row>
+    <row r="126">
+      <c r="C126" s="17"/>
+    </row>
+    <row r="127">
+      <c r="C127" s="17"/>
+    </row>
+    <row r="128">
+      <c r="C128" s="17"/>
+    </row>
+    <row r="129">
+      <c r="C129" s="17"/>
+    </row>
+    <row r="130">
+      <c r="C130" s="17"/>
+    </row>
+    <row r="131">
+      <c r="C131" s="17"/>
+    </row>
+    <row r="132">
+      <c r="C132" s="17"/>
+    </row>
+    <row r="133">
+      <c r="C133" s="17"/>
+    </row>
+    <row r="134">
+      <c r="C134" s="17"/>
+    </row>
+    <row r="135">
+      <c r="C135" s="17"/>
+    </row>
+    <row r="136">
+      <c r="C136" s="17"/>
+    </row>
+    <row r="137">
+      <c r="C137" s="17"/>
+    </row>
+    <row r="138">
+      <c r="C138" s="17"/>
+    </row>
+    <row r="139">
+      <c r="C139" s="17"/>
+    </row>
+    <row r="140">
+      <c r="C140" s="17"/>
+    </row>
+    <row r="141">
+      <c r="C141" s="17"/>
+    </row>
+    <row r="142">
+      <c r="C142" s="17"/>
+    </row>
+    <row r="143">
+      <c r="C143" s="17"/>
+    </row>
+    <row r="144">
+      <c r="C144" s="17"/>
+    </row>
+    <row r="145">
+      <c r="C145" s="17"/>
+    </row>
+    <row r="146">
+      <c r="C146" s="17"/>
+    </row>
+    <row r="147">
+      <c r="C147" s="17"/>
+    </row>
+    <row r="148">
+      <c r="C148" s="17"/>
+    </row>
+    <row r="149">
+      <c r="C149" s="17"/>
+    </row>
+    <row r="150">
+      <c r="C150" s="17"/>
+    </row>
+    <row r="151">
+      <c r="C151" s="17"/>
+    </row>
+    <row r="152">
+      <c r="C152" s="17"/>
+    </row>
+    <row r="153">
+      <c r="C153" s="17"/>
+    </row>
+    <row r="154">
+      <c r="C154" s="17"/>
+    </row>
+    <row r="155">
+      <c r="C155" s="17"/>
+    </row>
+    <row r="156">
+      <c r="C156" s="17"/>
+    </row>
+    <row r="157">
+      <c r="C157" s="17"/>
+    </row>
+    <row r="158">
+      <c r="C158" s="17"/>
+    </row>
+    <row r="159">
+      <c r="C159" s="17"/>
+    </row>
+    <row r="160">
+      <c r="C160" s="17"/>
+    </row>
+    <row r="161">
+      <c r="C161" s="17"/>
+    </row>
+    <row r="162">
+      <c r="C162" s="17"/>
+    </row>
+    <row r="163">
+      <c r="C163" s="17"/>
+    </row>
+    <row r="164">
+      <c r="C164" s="17"/>
+    </row>
+    <row r="165">
+      <c r="C165" s="17"/>
+    </row>
+    <row r="166">
+      <c r="C166" s="17"/>
+    </row>
+    <row r="167">
+      <c r="C167" s="17"/>
+    </row>
+    <row r="168">
+      <c r="C168" s="17"/>
+    </row>
+    <row r="169">
+      <c r="C169" s="17"/>
+    </row>
+    <row r="170">
+      <c r="C170" s="17"/>
+    </row>
+    <row r="171">
+      <c r="C171" s="17"/>
+    </row>
+    <row r="172">
+      <c r="C172" s="17"/>
+    </row>
+    <row r="173">
+      <c r="C173" s="17"/>
+    </row>
+    <row r="174">
+      <c r="C174" s="17"/>
+    </row>
+    <row r="175">
+      <c r="C175" s="17"/>
+    </row>
+    <row r="176">
+      <c r="C176" s="17"/>
+    </row>
+    <row r="177">
+      <c r="C177" s="17"/>
+    </row>
+    <row r="178">
+      <c r="C178" s="17"/>
+    </row>
+    <row r="179">
+      <c r="C179" s="17"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="17"/>
+    </row>
+    <row r="181">
+      <c r="C181" s="17"/>
+    </row>
+    <row r="182">
+      <c r="C182" s="17"/>
+    </row>
+    <row r="183">
+      <c r="C183" s="17"/>
+    </row>
+    <row r="184">
+      <c r="C184" s="17"/>
+    </row>
+    <row r="185">
+      <c r="C185" s="17"/>
+    </row>
+    <row r="186">
+      <c r="C186" s="17"/>
+    </row>
+    <row r="187">
+      <c r="C187" s="17"/>
+    </row>
+    <row r="188">
+      <c r="C188" s="17"/>
+    </row>
+    <row r="189">
+      <c r="C189" s="17"/>
+    </row>
+    <row r="190">
+      <c r="C190" s="17"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="17"/>
+    </row>
+    <row r="192">
+      <c r="C192" s="17"/>
+    </row>
+    <row r="193">
+      <c r="C193" s="17"/>
+    </row>
+    <row r="194">
+      <c r="C194" s="17"/>
+    </row>
+    <row r="195">
+      <c r="C195" s="17"/>
+    </row>
+    <row r="196">
+      <c r="C196" s="17"/>
+    </row>
+    <row r="197">
+      <c r="C197" s="17"/>
+    </row>
+    <row r="198">
+      <c r="C198" s="17"/>
+    </row>
+    <row r="199">
+      <c r="C199" s="17"/>
+    </row>
+    <row r="200">
+      <c r="C200" s="17"/>
+    </row>
+    <row r="201">
+      <c r="C201" s="17"/>
+    </row>
+    <row r="202">
+      <c r="C202" s="17"/>
+    </row>
+    <row r="203">
+      <c r="C203" s="17"/>
+    </row>
+    <row r="204">
+      <c r="C204" s="17"/>
+    </row>
+    <row r="205">
+      <c r="C205" s="17"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="17"/>
+    </row>
+    <row r="207">
+      <c r="C207" s="17"/>
+    </row>
+    <row r="208">
+      <c r="C208" s="17"/>
+    </row>
+    <row r="209">
+      <c r="C209" s="17"/>
+    </row>
+    <row r="210">
+      <c r="C210" s="17"/>
+    </row>
+    <row r="211">
+      <c r="C211" s="17"/>
+    </row>
+    <row r="212">
+      <c r="C212" s="17"/>
+    </row>
+    <row r="213">
+      <c r="C213" s="17"/>
+    </row>
+    <row r="214">
+      <c r="C214" s="17"/>
+    </row>
+    <row r="215">
+      <c r="C215" s="17"/>
+    </row>
+    <row r="216">
+      <c r="C216" s="17"/>
+    </row>
+    <row r="217">
+      <c r="C217" s="17"/>
+    </row>
+    <row r="218">
+      <c r="C218" s="17"/>
+    </row>
+    <row r="219">
+      <c r="C219" s="17"/>
+    </row>
+    <row r="220">
+      <c r="C220" s="17"/>
+    </row>
+    <row r="221">
+      <c r="C221" s="17"/>
+    </row>
+    <row r="222">
+      <c r="C222" s="17"/>
+    </row>
+    <row r="223">
+      <c r="C223" s="17"/>
+    </row>
+    <row r="224">
+      <c r="C224" s="17"/>
+    </row>
+    <row r="225">
+      <c r="C225" s="17"/>
+    </row>
+    <row r="226">
+      <c r="C226" s="17"/>
+    </row>
+    <row r="227">
+      <c r="C227" s="17"/>
+    </row>
+    <row r="228">
+      <c r="C228" s="17"/>
+    </row>
+    <row r="229">
+      <c r="C229" s="17"/>
+    </row>
+    <row r="230">
+      <c r="C230" s="17"/>
+    </row>
+    <row r="231">
+      <c r="C231" s="17"/>
+    </row>
+    <row r="232">
+      <c r="C232" s="17"/>
+    </row>
+    <row r="233">
+      <c r="C233" s="17"/>
+    </row>
+    <row r="234">
+      <c r="C234" s="17"/>
+    </row>
+    <row r="235">
+      <c r="C235" s="17"/>
+    </row>
+    <row r="236">
+      <c r="C236" s="17"/>
+    </row>
+    <row r="237">
+      <c r="C237" s="17"/>
+    </row>
+    <row r="238">
+      <c r="C238" s="17"/>
+    </row>
+    <row r="239">
+      <c r="C239" s="17"/>
+    </row>
+    <row r="240">
+      <c r="C240" s="17"/>
+    </row>
+    <row r="241">
+      <c r="C241" s="17"/>
+    </row>
+    <row r="242">
+      <c r="C242" s="17"/>
+    </row>
+    <row r="243">
+      <c r="C243" s="17"/>
+    </row>
+    <row r="244">
+      <c r="C244" s="17"/>
+    </row>
+    <row r="245">
+      <c r="C245" s="17"/>
+    </row>
+    <row r="246">
+      <c r="C246" s="17"/>
+    </row>
+    <row r="247">
+      <c r="C247" s="17"/>
+    </row>
+    <row r="248">
+      <c r="C248" s="17"/>
+    </row>
+    <row r="249">
+      <c r="C249" s="17"/>
+    </row>
+    <row r="250">
+      <c r="C250" s="17"/>
+    </row>
+    <row r="251">
+      <c r="C251" s="17"/>
+    </row>
+    <row r="252">
+      <c r="C252" s="17"/>
+    </row>
+    <row r="253">
+      <c r="C253" s="17"/>
+    </row>
+    <row r="254">
+      <c r="C254" s="17"/>
+    </row>
+    <row r="255">
+      <c r="C255" s="17"/>
+    </row>
+    <row r="256">
+      <c r="C256" s="17"/>
+    </row>
+    <row r="257">
+      <c r="C257" s="17"/>
+    </row>
+    <row r="258">
+      <c r="C258" s="17"/>
+    </row>
+    <row r="259">
+      <c r="C259" s="17"/>
+    </row>
+    <row r="260">
+      <c r="C260" s="17"/>
+    </row>
+    <row r="261">
+      <c r="C261" s="17"/>
+    </row>
+    <row r="262">
+      <c r="C262" s="17"/>
+    </row>
+    <row r="263">
+      <c r="C263" s="17"/>
+    </row>
+    <row r="264">
+      <c r="C264" s="17"/>
+    </row>
+    <row r="265">
+      <c r="C265" s="17"/>
+    </row>
+    <row r="266">
+      <c r="C266" s="17"/>
+    </row>
+    <row r="267">
+      <c r="C267" s="17"/>
+    </row>
+    <row r="268">
+      <c r="C268" s="17"/>
+    </row>
+    <row r="269">
+      <c r="C269" s="17"/>
+    </row>
+    <row r="270">
+      <c r="C270" s="17"/>
+    </row>
+    <row r="271">
+      <c r="C271" s="17"/>
+    </row>
+    <row r="272">
+      <c r="C272" s="17"/>
+    </row>
+    <row r="273">
+      <c r="C273" s="17"/>
+    </row>
+    <row r="274">
+      <c r="C274" s="17"/>
+    </row>
+    <row r="275">
+      <c r="C275" s="17"/>
+    </row>
+    <row r="276">
+      <c r="C276" s="17"/>
+    </row>
+    <row r="277">
+      <c r="C277" s="17"/>
+    </row>
+    <row r="278">
+      <c r="C278" s="17"/>
+    </row>
+    <row r="279">
+      <c r="C279" s="17"/>
+    </row>
+    <row r="280">
+      <c r="C280" s="17"/>
+    </row>
+    <row r="281">
+      <c r="C281" s="17"/>
+    </row>
+    <row r="282">
+      <c r="C282" s="17"/>
+    </row>
+    <row r="283">
+      <c r="C283" s="17"/>
+    </row>
+    <row r="284">
+      <c r="C284" s="17"/>
+    </row>
+    <row r="285">
+      <c r="C285" s="17"/>
+    </row>
+    <row r="286">
+      <c r="C286" s="17"/>
+    </row>
+    <row r="287">
+      <c r="C287" s="17"/>
+    </row>
+    <row r="288">
+      <c r="C288" s="17"/>
+    </row>
+    <row r="289">
+      <c r="C289" s="17"/>
+    </row>
+    <row r="290">
+      <c r="C290" s="17"/>
+    </row>
+    <row r="291">
+      <c r="C291" s="17"/>
+    </row>
+    <row r="292">
+      <c r="C292" s="17"/>
+    </row>
+    <row r="293">
+      <c r="C293" s="17"/>
+    </row>
+    <row r="294">
+      <c r="C294" s="17"/>
+    </row>
+    <row r="295">
+      <c r="C295" s="17"/>
+    </row>
+    <row r="296">
+      <c r="C296" s="17"/>
+    </row>
+    <row r="297">
+      <c r="C297" s="17"/>
+    </row>
+    <row r="298">
+      <c r="C298" s="17"/>
+    </row>
+    <row r="299">
+      <c r="C299" s="17"/>
+    </row>
+    <row r="300">
+      <c r="C300" s="17"/>
+    </row>
+    <row r="301">
+      <c r="C301" s="17"/>
+    </row>
+    <row r="302">
+      <c r="C302" s="17"/>
+    </row>
+    <row r="303">
+      <c r="C303" s="17"/>
+    </row>
+    <row r="304">
+      <c r="C304" s="17"/>
+    </row>
+    <row r="305">
+      <c r="C305" s="17"/>
+    </row>
+    <row r="306">
+      <c r="C306" s="17"/>
+    </row>
+    <row r="307">
+      <c r="C307" s="17"/>
+    </row>
+    <row r="308">
+      <c r="C308" s="17"/>
+    </row>
+    <row r="309">
+      <c r="C309" s="17"/>
+    </row>
+    <row r="310">
+      <c r="C310" s="17"/>
+    </row>
+    <row r="311">
+      <c r="C311" s="17"/>
+    </row>
+    <row r="312">
+      <c r="C312" s="17"/>
+    </row>
+    <row r="313">
+      <c r="C313" s="17"/>
+    </row>
+    <row r="314">
+      <c r="C314" s="17"/>
+    </row>
+    <row r="315">
+      <c r="C315" s="17"/>
+    </row>
+    <row r="316">
+      <c r="C316" s="17"/>
+    </row>
+    <row r="317">
+      <c r="C317" s="17"/>
+    </row>
+    <row r="318">
+      <c r="C318" s="17"/>
+    </row>
+    <row r="319">
+      <c r="C319" s="17"/>
+    </row>
+    <row r="320">
+      <c r="C320" s="17"/>
+    </row>
+    <row r="321">
+      <c r="C321" s="17"/>
+    </row>
+    <row r="322">
+      <c r="C322" s="17"/>
+    </row>
+    <row r="323">
+      <c r="C323" s="17"/>
+    </row>
+    <row r="324">
+      <c r="C324" s="17"/>
+    </row>
+    <row r="325">
+      <c r="C325" s="17"/>
+    </row>
+    <row r="326">
+      <c r="C326" s="17"/>
+    </row>
+    <row r="327">
+      <c r="C327" s="17"/>
+    </row>
+    <row r="328">
+      <c r="C328" s="17"/>
+    </row>
+    <row r="329">
+      <c r="C329" s="17"/>
+    </row>
+    <row r="330">
+      <c r="C330" s="17"/>
+    </row>
+    <row r="331">
+      <c r="C331" s="17"/>
+    </row>
+    <row r="332">
+      <c r="C332" s="17"/>
+    </row>
+    <row r="333">
+      <c r="C333" s="17"/>
+    </row>
+    <row r="334">
+      <c r="C334" s="17"/>
+    </row>
+    <row r="335">
+      <c r="C335" s="17"/>
+    </row>
+    <row r="336">
+      <c r="C336" s="17"/>
+    </row>
+    <row r="337">
+      <c r="C337" s="17"/>
+    </row>
+    <row r="338">
+      <c r="C338" s="17"/>
+    </row>
+    <row r="339">
+      <c r="C339" s="17"/>
+    </row>
+    <row r="340">
+      <c r="C340" s="17"/>
+    </row>
+    <row r="341">
+      <c r="C341" s="17"/>
+    </row>
+    <row r="342">
+      <c r="C342" s="17"/>
+    </row>
+    <row r="343">
+      <c r="C343" s="17"/>
+    </row>
+    <row r="344">
+      <c r="C344" s="17"/>
+    </row>
+    <row r="345">
+      <c r="C345" s="17"/>
+    </row>
+    <row r="346">
+      <c r="C346" s="17"/>
+    </row>
+    <row r="347">
+      <c r="C347" s="17"/>
+    </row>
+    <row r="348">
+      <c r="C348" s="17"/>
+    </row>
+    <row r="349">
+      <c r="C349" s="17"/>
+    </row>
+    <row r="350">
+      <c r="C350" s="17"/>
+    </row>
+    <row r="351">
+      <c r="C351" s="17"/>
+    </row>
+    <row r="352">
+      <c r="C352" s="17"/>
+    </row>
+    <row r="353">
+      <c r="C353" s="17"/>
+    </row>
+    <row r="354">
+      <c r="C354" s="17"/>
+    </row>
+    <row r="355">
+      <c r="C355" s="17"/>
+    </row>
+    <row r="356">
+      <c r="C356" s="17"/>
+    </row>
+    <row r="357">
+      <c r="C357" s="17"/>
+    </row>
+    <row r="358">
+      <c r="C358" s="17"/>
+    </row>
+    <row r="359">
+      <c r="C359" s="17"/>
+    </row>
+    <row r="360">
+      <c r="C360" s="17"/>
+    </row>
+    <row r="361">
+      <c r="C361" s="17"/>
+    </row>
+    <row r="362">
+      <c r="C362" s="17"/>
+    </row>
+    <row r="363">
+      <c r="C363" s="17"/>
+    </row>
+    <row r="364">
+      <c r="C364" s="17"/>
+    </row>
+    <row r="365">
+      <c r="C365" s="17"/>
+    </row>
+    <row r="366">
+      <c r="C366" s="17"/>
+    </row>
+    <row r="367">
+      <c r="C367" s="17"/>
+    </row>
+    <row r="368">
+      <c r="C368" s="17"/>
+    </row>
+    <row r="369">
+      <c r="C369" s="17"/>
+    </row>
+    <row r="370">
+      <c r="C370" s="17"/>
+    </row>
+    <row r="371">
+      <c r="C371" s="17"/>
+    </row>
+    <row r="372">
+      <c r="C372" s="17"/>
+    </row>
+    <row r="373">
+      <c r="C373" s="17"/>
+    </row>
+    <row r="374">
+      <c r="C374" s="17"/>
+    </row>
+    <row r="375">
+      <c r="C375" s="17"/>
+    </row>
+    <row r="376">
+      <c r="C376" s="17"/>
+    </row>
+    <row r="377">
+      <c r="C377" s="17"/>
+    </row>
+    <row r="378">
+      <c r="C378" s="17"/>
+    </row>
+    <row r="379">
+      <c r="C379" s="17"/>
+    </row>
+    <row r="380">
+      <c r="C380" s="17"/>
+    </row>
+    <row r="381">
+      <c r="C381" s="17"/>
+    </row>
+    <row r="382">
+      <c r="C382" s="17"/>
+    </row>
+    <row r="383">
+      <c r="C383" s="17"/>
+    </row>
+    <row r="384">
+      <c r="C384" s="17"/>
+    </row>
+    <row r="385">
+      <c r="C385" s="17"/>
+    </row>
+    <row r="386">
+      <c r="C386" s="17"/>
+    </row>
+    <row r="387">
+      <c r="C387" s="17"/>
+    </row>
+    <row r="388">
+      <c r="C388" s="17"/>
+    </row>
+    <row r="389">
+      <c r="C389" s="17"/>
+    </row>
+    <row r="390">
+      <c r="C390" s="17"/>
+    </row>
+    <row r="391">
+      <c r="C391" s="17"/>
+    </row>
+    <row r="392">
+      <c r="C392" s="17"/>
+    </row>
+    <row r="393">
+      <c r="C393" s="17"/>
+    </row>
+    <row r="394">
+      <c r="C394" s="17"/>
+    </row>
+    <row r="395">
+      <c r="C395" s="17"/>
+    </row>
+    <row r="396">
+      <c r="C396" s="17"/>
+    </row>
+    <row r="397">
+      <c r="C397" s="17"/>
+    </row>
+    <row r="398">
+      <c r="C398" s="17"/>
+    </row>
+    <row r="399">
+      <c r="C399" s="17"/>
+    </row>
+    <row r="400">
+      <c r="C400" s="17"/>
+    </row>
+    <row r="401">
+      <c r="C401" s="17"/>
+    </row>
+    <row r="402">
+      <c r="C402" s="17"/>
+    </row>
+    <row r="403">
+      <c r="C403" s="17"/>
+    </row>
+    <row r="404">
+      <c r="C404" s="17"/>
+    </row>
+    <row r="405">
+      <c r="C405" s="17"/>
+    </row>
+    <row r="406">
+      <c r="C406" s="17"/>
+    </row>
+    <row r="407">
+      <c r="C407" s="17"/>
+    </row>
+    <row r="408">
+      <c r="C408" s="17"/>
+    </row>
+    <row r="409">
+      <c r="C409" s="17"/>
+    </row>
+    <row r="410">
+      <c r="C410" s="17"/>
+    </row>
+    <row r="411">
+      <c r="C411" s="17"/>
+    </row>
+    <row r="412">
+      <c r="C412" s="17"/>
+    </row>
+    <row r="413">
+      <c r="C413" s="17"/>
+    </row>
+    <row r="414">
+      <c r="C414" s="17"/>
+    </row>
+    <row r="415">
+      <c r="C415" s="17"/>
+    </row>
+    <row r="416">
+      <c r="C416" s="17"/>
+    </row>
+    <row r="417">
+      <c r="C417" s="17"/>
+    </row>
+    <row r="418">
+      <c r="C418" s="17"/>
+    </row>
+    <row r="419">
+      <c r="C419" s="17"/>
+    </row>
+    <row r="420">
+      <c r="C420" s="17"/>
+    </row>
+    <row r="421">
+      <c r="C421" s="17"/>
+    </row>
+    <row r="422">
+      <c r="C422" s="17"/>
+    </row>
+    <row r="423">
+      <c r="C423" s="17"/>
+    </row>
+    <row r="424">
+      <c r="C424" s="17"/>
+    </row>
+    <row r="425">
+      <c r="C425" s="17"/>
+    </row>
+    <row r="426">
+      <c r="C426" s="17"/>
+    </row>
+    <row r="427">
+      <c r="C427" s="17"/>
+    </row>
+    <row r="428">
+      <c r="C428" s="17"/>
+    </row>
+    <row r="429">
+      <c r="C429" s="17"/>
+    </row>
+    <row r="430">
+      <c r="C430" s="17"/>
+    </row>
+    <row r="431">
+      <c r="C431" s="17"/>
+    </row>
+    <row r="432">
+      <c r="C432" s="17"/>
+    </row>
+    <row r="433">
+      <c r="C433" s="17"/>
+    </row>
+    <row r="434">
+      <c r="C434" s="17"/>
+    </row>
+    <row r="435">
+      <c r="C435" s="17"/>
+    </row>
+    <row r="436">
+      <c r="C436" s="17"/>
+    </row>
+    <row r="437">
+      <c r="C437" s="17"/>
+    </row>
+    <row r="438">
+      <c r="C438" s="17"/>
+    </row>
+    <row r="439">
+      <c r="C439" s="17"/>
+    </row>
+    <row r="440">
+      <c r="C440" s="17"/>
+    </row>
+    <row r="441">
+      <c r="C441" s="17"/>
+    </row>
+    <row r="442">
+      <c r="C442" s="17"/>
+    </row>
+    <row r="443">
+      <c r="C443" s="17"/>
+    </row>
+    <row r="444">
+      <c r="C444" s="17"/>
+    </row>
+    <row r="445">
+      <c r="C445" s="17"/>
+    </row>
+    <row r="446">
+      <c r="C446" s="17"/>
+    </row>
+    <row r="447">
+      <c r="C447" s="17"/>
+    </row>
+    <row r="448">
+      <c r="C448" s="17"/>
+    </row>
+    <row r="449">
+      <c r="C449" s="17"/>
+    </row>
+    <row r="450">
+      <c r="C450" s="17"/>
+    </row>
+    <row r="451">
+      <c r="C451" s="17"/>
+    </row>
+    <row r="452">
+      <c r="C452" s="17"/>
+    </row>
+    <row r="453">
+      <c r="C453" s="17"/>
+    </row>
+    <row r="454">
+      <c r="C454" s="17"/>
+    </row>
+    <row r="455">
+      <c r="C455" s="17"/>
+    </row>
+    <row r="456">
+      <c r="C456" s="17"/>
+    </row>
+    <row r="457">
+      <c r="C457" s="17"/>
+    </row>
+    <row r="458">
+      <c r="C458" s="17"/>
+    </row>
+    <row r="459">
+      <c r="C459" s="17"/>
+    </row>
+    <row r="460">
+      <c r="C460" s="17"/>
+    </row>
+    <row r="461">
+      <c r="C461" s="17"/>
+    </row>
+    <row r="462">
+      <c r="C462" s="17"/>
+    </row>
+    <row r="463">
+      <c r="C463" s="17"/>
+    </row>
+    <row r="464">
+      <c r="C464" s="17"/>
+    </row>
+    <row r="465">
+      <c r="C465" s="17"/>
+    </row>
+    <row r="466">
+      <c r="C466" s="17"/>
+    </row>
+    <row r="467">
+      <c r="C467" s="17"/>
+    </row>
+    <row r="468">
+      <c r="C468" s="17"/>
+    </row>
+    <row r="469">
+      <c r="C469" s="17"/>
+    </row>
+    <row r="470">
+      <c r="C470" s="17"/>
+    </row>
+    <row r="471">
+      <c r="C471" s="17"/>
+    </row>
+    <row r="472">
+      <c r="C472" s="17"/>
+    </row>
+    <row r="473">
+      <c r="C473" s="17"/>
+    </row>
+    <row r="474">
+      <c r="C474" s="17"/>
+    </row>
+    <row r="475">
+      <c r="C475" s="17"/>
+    </row>
+    <row r="476">
+      <c r="C476" s="17"/>
+    </row>
+    <row r="477">
+      <c r="C477" s="17"/>
+    </row>
+    <row r="478">
+      <c r="C478" s="17"/>
+    </row>
+    <row r="479">
+      <c r="C479" s="17"/>
+    </row>
+    <row r="480">
+      <c r="C480" s="17"/>
+    </row>
+    <row r="481">
+      <c r="C481" s="17"/>
+    </row>
+    <row r="482">
+      <c r="C482" s="17"/>
+    </row>
+    <row r="483">
+      <c r="C483" s="17"/>
+    </row>
+    <row r="484">
+      <c r="C484" s="17"/>
+    </row>
+    <row r="485">
+      <c r="C485" s="17"/>
+    </row>
+    <row r="486">
+      <c r="C486" s="17"/>
+    </row>
+    <row r="487">
+      <c r="C487" s="17"/>
+    </row>
+    <row r="488">
+      <c r="C488" s="17"/>
+    </row>
+    <row r="489">
+      <c r="C489" s="17"/>
+    </row>
+    <row r="490">
+      <c r="C490" s="17"/>
+    </row>
+    <row r="491">
+      <c r="C491" s="17"/>
+    </row>
+    <row r="492">
+      <c r="C492" s="17"/>
+    </row>
+    <row r="493">
+      <c r="C493" s="17"/>
+    </row>
+    <row r="494">
+      <c r="C494" s="17"/>
+    </row>
+    <row r="495">
+      <c r="C495" s="17"/>
+    </row>
+    <row r="496">
+      <c r="C496" s="17"/>
+    </row>
+    <row r="497">
+      <c r="C497" s="17"/>
+    </row>
+    <row r="498">
+      <c r="C498" s="17"/>
+    </row>
+    <row r="499">
+      <c r="C499" s="17"/>
+    </row>
+    <row r="500">
+      <c r="C500" s="17"/>
+    </row>
+    <row r="501">
+      <c r="C501" s="17"/>
+    </row>
+    <row r="502">
+      <c r="C502" s="17"/>
+    </row>
+    <row r="503">
+      <c r="C503" s="17"/>
+    </row>
+    <row r="504">
+      <c r="C504" s="17"/>
+    </row>
+    <row r="505">
+      <c r="C505" s="17"/>
+    </row>
+    <row r="506">
+      <c r="C506" s="17"/>
+    </row>
+    <row r="507">
+      <c r="C507" s="17"/>
+    </row>
+    <row r="508">
+      <c r="C508" s="17"/>
+    </row>
+    <row r="509">
+      <c r="C509" s="17"/>
+    </row>
+    <row r="510">
+      <c r="C510" s="17"/>
+    </row>
+    <row r="511">
+      <c r="C511" s="17"/>
+    </row>
+    <row r="512">
+      <c r="C512" s="17"/>
+    </row>
+    <row r="513">
+      <c r="C513" s="17"/>
+    </row>
+    <row r="514">
+      <c r="C514" s="17"/>
+    </row>
+    <row r="515">
+      <c r="C515" s="17"/>
+    </row>
+    <row r="516">
+      <c r="C516" s="17"/>
+    </row>
+    <row r="517">
+      <c r="C517" s="17"/>
+    </row>
+    <row r="518">
+      <c r="C518" s="17"/>
+    </row>
+    <row r="519">
+      <c r="C519" s="17"/>
+    </row>
+    <row r="520">
+      <c r="C520" s="17"/>
+    </row>
+    <row r="521">
+      <c r="C521" s="17"/>
+    </row>
+    <row r="522">
+      <c r="C522" s="17"/>
+    </row>
+    <row r="523">
+      <c r="C523" s="17"/>
+    </row>
+    <row r="524">
+      <c r="C524" s="17"/>
+    </row>
+    <row r="525">
+      <c r="C525" s="17"/>
+    </row>
+    <row r="526">
+      <c r="C526" s="17"/>
+    </row>
+    <row r="527">
+      <c r="C527" s="17"/>
+    </row>
+    <row r="528">
+      <c r="C528" s="17"/>
+    </row>
+    <row r="529">
+      <c r="C529" s="17"/>
+    </row>
+    <row r="530">
+      <c r="C530" s="17"/>
+    </row>
+    <row r="531">
+      <c r="C531" s="17"/>
+    </row>
+    <row r="532">
+      <c r="C532" s="17"/>
+    </row>
+    <row r="533">
+      <c r="C533" s="17"/>
+    </row>
+    <row r="534">
+      <c r="C534" s="17"/>
+    </row>
+    <row r="535">
+      <c r="C535" s="17"/>
+    </row>
+    <row r="536">
+      <c r="C536" s="17"/>
+    </row>
+    <row r="537">
+      <c r="C537" s="17"/>
+    </row>
+    <row r="538">
+      <c r="C538" s="17"/>
+    </row>
+    <row r="539">
+      <c r="C539" s="17"/>
+    </row>
+    <row r="540">
+      <c r="C540" s="17"/>
+    </row>
+    <row r="541">
+      <c r="C541" s="17"/>
+    </row>
+    <row r="542">
+      <c r="C542" s="17"/>
+    </row>
+    <row r="543">
+      <c r="C543" s="17"/>
+    </row>
+    <row r="544">
+      <c r="C544" s="17"/>
+    </row>
+    <row r="545">
+      <c r="C545" s="17"/>
+    </row>
+    <row r="546">
+      <c r="C546" s="17"/>
+    </row>
+    <row r="547">
+      <c r="C547" s="17"/>
+    </row>
+    <row r="548">
+      <c r="C548" s="17"/>
+    </row>
+    <row r="549">
+      <c r="C549" s="17"/>
+    </row>
+    <row r="550">
+      <c r="C550" s="17"/>
+    </row>
+    <row r="551">
+      <c r="C551" s="17"/>
+    </row>
+    <row r="552">
+      <c r="C552" s="17"/>
+    </row>
+    <row r="553">
+      <c r="C553" s="17"/>
+    </row>
+    <row r="554">
+      <c r="C554" s="17"/>
+    </row>
+    <row r="555">
+      <c r="C555" s="17"/>
+    </row>
+    <row r="556">
+      <c r="C556" s="17"/>
+    </row>
+    <row r="557">
+      <c r="C557" s="17"/>
+    </row>
+    <row r="558">
+      <c r="C558" s="17"/>
+    </row>
+    <row r="559">
+      <c r="C559" s="17"/>
+    </row>
+    <row r="560">
+      <c r="C560" s="17"/>
+    </row>
+    <row r="561">
+      <c r="C561" s="17"/>
+    </row>
+    <row r="562">
+      <c r="C562" s="17"/>
+    </row>
+    <row r="563">
+      <c r="C563" s="17"/>
+    </row>
+    <row r="564">
+      <c r="C564" s="17"/>
+    </row>
+    <row r="565">
+      <c r="C565" s="17"/>
+    </row>
+    <row r="566">
+      <c r="C566" s="17"/>
+    </row>
+    <row r="567">
+      <c r="C567" s="17"/>
+    </row>
+    <row r="568">
+      <c r="C568" s="17"/>
+    </row>
+    <row r="569">
+      <c r="C569" s="17"/>
+    </row>
+    <row r="570">
+      <c r="C570" s="17"/>
+    </row>
+    <row r="571">
+      <c r="C571" s="17"/>
+    </row>
+    <row r="572">
+      <c r="C572" s="17"/>
+    </row>
+    <row r="573">
+      <c r="C573" s="17"/>
+    </row>
+    <row r="574">
+      <c r="C574" s="17"/>
+    </row>
+    <row r="575">
+      <c r="C575" s="17"/>
+    </row>
+    <row r="576">
+      <c r="C576" s="17"/>
+    </row>
+    <row r="577">
+      <c r="C577" s="17"/>
+    </row>
+    <row r="578">
+      <c r="C578" s="17"/>
+    </row>
+    <row r="579">
+      <c r="C579" s="17"/>
+    </row>
+    <row r="580">
+      <c r="C580" s="17"/>
+    </row>
+    <row r="581">
+      <c r="C581" s="17"/>
+    </row>
+    <row r="582">
+      <c r="C582" s="17"/>
+    </row>
+    <row r="583">
+      <c r="C583" s="17"/>
+    </row>
+    <row r="584">
+      <c r="C584" s="17"/>
+    </row>
+    <row r="585">
+      <c r="C585" s="17"/>
+    </row>
+    <row r="586">
+      <c r="C586" s="17"/>
+    </row>
+    <row r="587">
+      <c r="C587" s="17"/>
+    </row>
+    <row r="588">
+      <c r="C588" s="17"/>
+    </row>
+    <row r="589">
+      <c r="C589" s="17"/>
+    </row>
+    <row r="590">
+      <c r="C590" s="17"/>
+    </row>
+    <row r="591">
+      <c r="C591" s="17"/>
+    </row>
+    <row r="592">
+      <c r="C592" s="17"/>
+    </row>
+    <row r="593">
+      <c r="C593" s="17"/>
+    </row>
+    <row r="594">
+      <c r="C594" s="17"/>
+    </row>
+    <row r="595">
+      <c r="C595" s="17"/>
+    </row>
+    <row r="596">
+      <c r="C596" s="17"/>
+    </row>
+    <row r="597">
+      <c r="C597" s="17"/>
+    </row>
+    <row r="598">
+      <c r="C598" s="17"/>
+    </row>
+    <row r="599">
+      <c r="C599" s="17"/>
+    </row>
+    <row r="600">
+      <c r="C600" s="17"/>
+    </row>
+    <row r="601">
+      <c r="C601" s="17"/>
+    </row>
+    <row r="602">
+      <c r="C602" s="17"/>
+    </row>
+    <row r="603">
+      <c r="C603" s="17"/>
+    </row>
+    <row r="604">
+      <c r="C604" s="17"/>
+    </row>
+    <row r="605">
+      <c r="C605" s="17"/>
+    </row>
+    <row r="606">
+      <c r="C606" s="17"/>
+    </row>
+    <row r="607">
+      <c r="C607" s="17"/>
+    </row>
+    <row r="608">
+      <c r="C608" s="17"/>
+    </row>
+    <row r="609">
+      <c r="C609" s="17"/>
+    </row>
+    <row r="610">
+      <c r="C610" s="17"/>
+    </row>
+    <row r="611">
+      <c r="C611" s="17"/>
+    </row>
+    <row r="612">
+      <c r="C612" s="17"/>
+    </row>
+    <row r="613">
+      <c r="C613" s="17"/>
+    </row>
+    <row r="614">
+      <c r="C614" s="17"/>
+    </row>
+    <row r="615">
+      <c r="C615" s="17"/>
+    </row>
+    <row r="616">
+      <c r="C616" s="17"/>
+    </row>
+    <row r="617">
+      <c r="C617" s="17"/>
+    </row>
+    <row r="618">
+      <c r="C618" s="17"/>
+    </row>
+    <row r="619">
+      <c r="C619" s="17"/>
+    </row>
+    <row r="620">
+      <c r="C620" s="17"/>
+    </row>
+    <row r="621">
+      <c r="C621" s="17"/>
+    </row>
+    <row r="622">
+      <c r="C622" s="17"/>
+    </row>
+    <row r="623">
+      <c r="C623" s="17"/>
+    </row>
+    <row r="624">
+      <c r="C624" s="17"/>
+    </row>
+    <row r="625">
+      <c r="C625" s="17"/>
+    </row>
+    <row r="626">
+      <c r="C626" s="17"/>
+    </row>
+    <row r="627">
+      <c r="C627" s="17"/>
+    </row>
+    <row r="628">
+      <c r="C628" s="17"/>
+    </row>
+    <row r="629">
+      <c r="C629" s="17"/>
+    </row>
+    <row r="630">
+      <c r="C630" s="17"/>
+    </row>
+    <row r="631">
+      <c r="C631" s="17"/>
+    </row>
+    <row r="632">
+      <c r="C632" s="17"/>
+    </row>
+    <row r="633">
+      <c r="C633" s="17"/>
+    </row>
+    <row r="634">
+      <c r="C634" s="17"/>
+    </row>
+    <row r="635">
+      <c r="C635" s="17"/>
+    </row>
+    <row r="636">
+      <c r="C636" s="17"/>
+    </row>
+    <row r="637">
+      <c r="C637" s="17"/>
+    </row>
+    <row r="638">
+      <c r="C638" s="17"/>
+    </row>
+    <row r="639">
+      <c r="C639" s="17"/>
+    </row>
+    <row r="640">
+      <c r="C640" s="17"/>
+    </row>
+    <row r="641">
+      <c r="C641" s="17"/>
+    </row>
+    <row r="642">
+      <c r="C642" s="17"/>
+    </row>
+    <row r="643">
+      <c r="C643" s="17"/>
+    </row>
+    <row r="644">
+      <c r="C644" s="17"/>
+    </row>
+    <row r="645">
+      <c r="C645" s="17"/>
+    </row>
+    <row r="646">
+      <c r="C646" s="17"/>
+    </row>
+    <row r="647">
+      <c r="C647" s="17"/>
+    </row>
+    <row r="648">
+      <c r="C648" s="17"/>
+    </row>
+    <row r="649">
+      <c r="C649" s="17"/>
+    </row>
+    <row r="650">
+      <c r="C650" s="17"/>
+    </row>
+    <row r="651">
+      <c r="C651" s="17"/>
+    </row>
+    <row r="652">
+      <c r="C652" s="17"/>
+    </row>
+    <row r="653">
+      <c r="C653" s="17"/>
+    </row>
+    <row r="654">
+      <c r="C654" s="17"/>
+    </row>
+    <row r="655">
+      <c r="C655" s="17"/>
+    </row>
+    <row r="656">
+      <c r="C656" s="17"/>
+    </row>
+    <row r="657">
+      <c r="C657" s="17"/>
+    </row>
+    <row r="658">
+      <c r="C658" s="17"/>
+    </row>
+    <row r="659">
+      <c r="C659" s="17"/>
+    </row>
+    <row r="660">
+      <c r="C660" s="17"/>
+    </row>
+    <row r="661">
+      <c r="C661" s="17"/>
+    </row>
+    <row r="662">
+      <c r="C662" s="17"/>
+    </row>
+    <row r="663">
+      <c r="C663" s="17"/>
+    </row>
+    <row r="664">
+      <c r="C664" s="17"/>
+    </row>
+    <row r="665">
+      <c r="C665" s="17"/>
+    </row>
+    <row r="666">
+      <c r="C666" s="17"/>
+    </row>
+    <row r="667">
+      <c r="C667" s="17"/>
+    </row>
+    <row r="668">
+      <c r="C668" s="17"/>
+    </row>
+    <row r="669">
+      <c r="C669" s="17"/>
+    </row>
+    <row r="670">
+      <c r="C670" s="17"/>
+    </row>
+    <row r="671">
+      <c r="C671" s="17"/>
+    </row>
+    <row r="672">
+      <c r="C672" s="17"/>
+    </row>
+    <row r="673">
+      <c r="C673" s="17"/>
+    </row>
+    <row r="674">
+      <c r="C674" s="17"/>
+    </row>
+    <row r="675">
+      <c r="C675" s="17"/>
+    </row>
+    <row r="676">
+      <c r="C676" s="17"/>
+    </row>
+    <row r="677">
+      <c r="C677" s="17"/>
+    </row>
+    <row r="678">
+      <c r="C678" s="17"/>
+    </row>
+    <row r="679">
+      <c r="C679" s="17"/>
+    </row>
+    <row r="680">
+      <c r="C680" s="17"/>
+    </row>
+    <row r="681">
+      <c r="C681" s="17"/>
+    </row>
+    <row r="682">
+      <c r="C682" s="17"/>
+    </row>
+    <row r="683">
+      <c r="C683" s="17"/>
+    </row>
+    <row r="684">
+      <c r="C684" s="17"/>
+    </row>
+    <row r="685">
+      <c r="C685" s="17"/>
+    </row>
+    <row r="686">
+      <c r="C686" s="17"/>
+    </row>
+    <row r="687">
+      <c r="C687" s="17"/>
+    </row>
+    <row r="688">
+      <c r="C688" s="17"/>
+    </row>
+    <row r="689">
+      <c r="C689" s="17"/>
+    </row>
+    <row r="690">
+      <c r="C690" s="17"/>
+    </row>
+    <row r="691">
+      <c r="C691" s="17"/>
+    </row>
+    <row r="692">
+      <c r="C692" s="17"/>
+    </row>
+    <row r="693">
+      <c r="C693" s="17"/>
+    </row>
+    <row r="694">
+      <c r="C694" s="17"/>
+    </row>
+    <row r="695">
+      <c r="C695" s="17"/>
+    </row>
+    <row r="696">
+      <c r="C696" s="17"/>
+    </row>
+    <row r="697">
+      <c r="C697" s="17"/>
+    </row>
+    <row r="698">
+      <c r="C698" s="17"/>
+    </row>
+    <row r="699">
+      <c r="C699" s="17"/>
+    </row>
+    <row r="700">
+      <c r="C700" s="17"/>
+    </row>
+    <row r="701">
+      <c r="C701" s="17"/>
+    </row>
+    <row r="702">
+      <c r="C702" s="17"/>
+    </row>
+    <row r="703">
+      <c r="C703" s="17"/>
+    </row>
+    <row r="704">
+      <c r="C704" s="17"/>
+    </row>
+    <row r="705">
+      <c r="C705" s="17"/>
+    </row>
+    <row r="706">
+      <c r="C706" s="17"/>
+    </row>
+    <row r="707">
+      <c r="C707" s="17"/>
+    </row>
+    <row r="708">
+      <c r="C708" s="17"/>
+    </row>
+    <row r="709">
+      <c r="C709" s="17"/>
+    </row>
+    <row r="710">
+      <c r="C710" s="17"/>
+    </row>
+    <row r="711">
+      <c r="C711" s="17"/>
+    </row>
+    <row r="712">
+      <c r="C712" s="17"/>
+    </row>
+    <row r="713">
+      <c r="C713" s="17"/>
+    </row>
+    <row r="714">
+      <c r="C714" s="17"/>
+    </row>
+    <row r="715">
+      <c r="C715" s="17"/>
+    </row>
+    <row r="716">
+      <c r="C716" s="17"/>
+    </row>
+    <row r="717">
+      <c r="C717" s="17"/>
+    </row>
+    <row r="718">
+      <c r="C718" s="17"/>
+    </row>
+    <row r="719">
+      <c r="C719" s="17"/>
+    </row>
+    <row r="720">
+      <c r="C720" s="17"/>
+    </row>
+    <row r="721">
+      <c r="C721" s="17"/>
+    </row>
+    <row r="722">
+      <c r="C722" s="17"/>
+    </row>
+    <row r="723">
+      <c r="C723" s="17"/>
+    </row>
+    <row r="724">
+      <c r="C724" s="17"/>
+    </row>
+    <row r="725">
+      <c r="C725" s="17"/>
+    </row>
+    <row r="726">
+      <c r="C726" s="17"/>
+    </row>
+    <row r="727">
+      <c r="C727" s="17"/>
+    </row>
+    <row r="728">
+      <c r="C728" s="17"/>
+    </row>
+    <row r="729">
+      <c r="C729" s="17"/>
+    </row>
+    <row r="730">
+      <c r="C730" s="17"/>
+    </row>
+    <row r="731">
+      <c r="C731" s="17"/>
+    </row>
+    <row r="732">
+      <c r="C732" s="17"/>
+    </row>
+    <row r="733">
+      <c r="C733" s="17"/>
+    </row>
+    <row r="734">
+      <c r="C734" s="17"/>
+    </row>
+    <row r="735">
+      <c r="C735" s="17"/>
+    </row>
+    <row r="736">
+      <c r="C736" s="17"/>
+    </row>
+    <row r="737">
+      <c r="C737" s="17"/>
+    </row>
+    <row r="738">
+      <c r="C738" s="17"/>
+    </row>
+    <row r="739">
+      <c r="C739" s="17"/>
+    </row>
+    <row r="740">
+      <c r="C740" s="17"/>
+    </row>
+    <row r="741">
+      <c r="C741" s="17"/>
+    </row>
+    <row r="742">
+      <c r="C742" s="17"/>
+    </row>
+    <row r="743">
+      <c r="C743" s="17"/>
+    </row>
+    <row r="744">
+      <c r="C744" s="17"/>
+    </row>
+    <row r="745">
+      <c r="C745" s="17"/>
+    </row>
+    <row r="746">
+      <c r="C746" s="17"/>
+    </row>
+    <row r="747">
+      <c r="C747" s="17"/>
+    </row>
+    <row r="748">
+      <c r="C748" s="17"/>
+    </row>
+    <row r="749">
+      <c r="C749" s="17"/>
+    </row>
+    <row r="750">
+      <c r="C750" s="17"/>
+    </row>
+    <row r="751">
+      <c r="C751" s="17"/>
+    </row>
+    <row r="752">
+      <c r="C752" s="17"/>
+    </row>
+    <row r="753">
+      <c r="C753" s="17"/>
+    </row>
+    <row r="754">
+      <c r="C754" s="17"/>
+    </row>
+    <row r="755">
+      <c r="C755" s="17"/>
+    </row>
+    <row r="756">
+      <c r="C756" s="17"/>
+    </row>
+    <row r="757">
+      <c r="C757" s="17"/>
+    </row>
+    <row r="758">
+      <c r="C758" s="17"/>
+    </row>
+    <row r="759">
+      <c r="C759" s="17"/>
+    </row>
+    <row r="760">
+      <c r="C760" s="17"/>
+    </row>
+    <row r="761">
+      <c r="C761" s="17"/>
+    </row>
+    <row r="762">
+      <c r="C762" s="17"/>
+    </row>
+    <row r="763">
+      <c r="C763" s="17"/>
+    </row>
+    <row r="764">
+      <c r="C764" s="17"/>
+    </row>
+    <row r="765">
+      <c r="C765" s="17"/>
+    </row>
+    <row r="766">
+      <c r="C766" s="17"/>
+    </row>
+    <row r="767">
+      <c r="C767" s="17"/>
+    </row>
+    <row r="768">
+      <c r="C768" s="17"/>
+    </row>
+    <row r="769">
+      <c r="C769" s="17"/>
+    </row>
+    <row r="770">
+      <c r="C770" s="17"/>
+    </row>
+    <row r="771">
+      <c r="C771" s="17"/>
+    </row>
+    <row r="772">
+      <c r="C772" s="17"/>
+    </row>
+    <row r="773">
+      <c r="C773" s="17"/>
+    </row>
+    <row r="774">
+      <c r="C774" s="17"/>
+    </row>
+    <row r="775">
+      <c r="C775" s="17"/>
+    </row>
+    <row r="776">
+      <c r="C776" s="17"/>
+    </row>
+    <row r="777">
+      <c r="C777" s="17"/>
+    </row>
+    <row r="778">
+      <c r="C778" s="17"/>
+    </row>
+    <row r="779">
+      <c r="C779" s="17"/>
+    </row>
+    <row r="780">
+      <c r="C780" s="17"/>
+    </row>
+    <row r="781">
+      <c r="C781" s="17"/>
+    </row>
+    <row r="782">
+      <c r="C782" s="17"/>
+    </row>
+    <row r="783">
+      <c r="C783" s="17"/>
+    </row>
+    <row r="784">
+      <c r="C784" s="17"/>
+    </row>
+    <row r="785">
+      <c r="C785" s="17"/>
+    </row>
+    <row r="786">
+      <c r="C786" s="17"/>
+    </row>
+    <row r="787">
+      <c r="C787" s="17"/>
+    </row>
+    <row r="788">
+      <c r="C788" s="17"/>
+    </row>
+    <row r="789">
+      <c r="C789" s="17"/>
+    </row>
+    <row r="790">
+      <c r="C790" s="17"/>
+    </row>
+    <row r="791">
+      <c r="C791" s="17"/>
+    </row>
+    <row r="792">
+      <c r="C792" s="17"/>
+    </row>
+    <row r="793">
+      <c r="C793" s="17"/>
+    </row>
+    <row r="794">
+      <c r="C794" s="17"/>
+    </row>
+    <row r="795">
+      <c r="C795" s="17"/>
+    </row>
+    <row r="796">
+      <c r="C796" s="17"/>
+    </row>
+    <row r="797">
+      <c r="C797" s="17"/>
+    </row>
+    <row r="798">
+      <c r="C798" s="17"/>
+    </row>
+    <row r="799">
+      <c r="C799" s="17"/>
+    </row>
+    <row r="800">
+      <c r="C800" s="17"/>
+    </row>
+    <row r="801">
+      <c r="C801" s="17"/>
+    </row>
+    <row r="802">
+      <c r="C802" s="17"/>
+    </row>
+    <row r="803">
+      <c r="C803" s="17"/>
+    </row>
+    <row r="804">
+      <c r="C804" s="17"/>
+    </row>
+    <row r="805">
+      <c r="C805" s="17"/>
+    </row>
+    <row r="806">
+      <c r="C806" s="17"/>
+    </row>
+    <row r="807">
+      <c r="C807" s="17"/>
+    </row>
+    <row r="808">
+      <c r="C808" s="17"/>
+    </row>
+    <row r="809">
+      <c r="C809" s="17"/>
+    </row>
+    <row r="810">
+      <c r="C810" s="17"/>
+    </row>
+    <row r="811">
+      <c r="C811" s="17"/>
+    </row>
+    <row r="812">
+      <c r="C812" s="17"/>
+    </row>
+    <row r="813">
+      <c r="C813" s="17"/>
+    </row>
+    <row r="814">
+      <c r="C814" s="17"/>
+    </row>
+    <row r="815">
+      <c r="C815" s="17"/>
+    </row>
+    <row r="816">
+      <c r="C816" s="17"/>
+    </row>
+    <row r="817">
+      <c r="C817" s="17"/>
+    </row>
+    <row r="818">
+      <c r="C818" s="17"/>
+    </row>
+    <row r="819">
+      <c r="C819" s="17"/>
+    </row>
+    <row r="820">
+      <c r="C820" s="17"/>
+    </row>
+    <row r="821">
+      <c r="C821" s="17"/>
+    </row>
+    <row r="822">
+      <c r="C822" s="17"/>
+    </row>
+    <row r="823">
+      <c r="C823" s="17"/>
+    </row>
+    <row r="824">
+      <c r="C824" s="17"/>
+    </row>
+    <row r="825">
+      <c r="C825" s="17"/>
+    </row>
+    <row r="826">
+      <c r="C826" s="17"/>
+    </row>
+    <row r="827">
+      <c r="C827" s="17"/>
+    </row>
+    <row r="828">
+      <c r="C828" s="17"/>
+    </row>
+    <row r="829">
+      <c r="C829" s="17"/>
+    </row>
+    <row r="830">
+      <c r="C830" s="17"/>
+    </row>
+    <row r="831">
+      <c r="C831" s="17"/>
+    </row>
+    <row r="832">
+      <c r="C832" s="17"/>
+    </row>
+    <row r="833">
+      <c r="C833" s="17"/>
+    </row>
+    <row r="834">
+      <c r="C834" s="17"/>
+    </row>
+    <row r="835">
+      <c r="C835" s="17"/>
+    </row>
+    <row r="836">
+      <c r="C836" s="17"/>
+    </row>
+    <row r="837">
+      <c r="C837" s="17"/>
+    </row>
+    <row r="838">
+      <c r="C838" s="17"/>
+    </row>
+    <row r="839">
+      <c r="C839" s="17"/>
+    </row>
+    <row r="840">
+      <c r="C840" s="17"/>
+    </row>
+    <row r="841">
+      <c r="C841" s="17"/>
+    </row>
+    <row r="842">
+      <c r="C842" s="17"/>
+    </row>
+    <row r="843">
+      <c r="C843" s="17"/>
+    </row>
+    <row r="844">
+      <c r="C844" s="17"/>
+    </row>
+    <row r="845">
+      <c r="C845" s="17"/>
+    </row>
+    <row r="846">
+      <c r="C846" s="17"/>
+    </row>
+    <row r="847">
+      <c r="C847" s="17"/>
+    </row>
+    <row r="848">
+      <c r="C848" s="17"/>
+    </row>
+    <row r="849">
+      <c r="C849" s="17"/>
+    </row>
+    <row r="850">
+      <c r="C850" s="17"/>
+    </row>
+    <row r="851">
+      <c r="C851" s="17"/>
+    </row>
+    <row r="852">
+      <c r="C852" s="17"/>
+    </row>
+    <row r="853">
+      <c r="C853" s="17"/>
+    </row>
+    <row r="854">
+      <c r="C854" s="17"/>
+    </row>
+    <row r="855">
+      <c r="C855" s="17"/>
+    </row>
+    <row r="856">
+      <c r="C856" s="17"/>
+    </row>
+    <row r="857">
+      <c r="C857" s="17"/>
+    </row>
+    <row r="858">
+      <c r="C858" s="17"/>
+    </row>
+    <row r="859">
+      <c r="C859" s="17"/>
+    </row>
+    <row r="860">
+      <c r="C860" s="17"/>
+    </row>
+    <row r="861">
+      <c r="C861" s="17"/>
+    </row>
+    <row r="862">
+      <c r="C862" s="17"/>
+    </row>
+    <row r="863">
+      <c r="C863" s="17"/>
+    </row>
+    <row r="864">
+      <c r="C864" s="17"/>
+    </row>
+    <row r="865">
+      <c r="C865" s="17"/>
+    </row>
+    <row r="866">
+      <c r="C866" s="17"/>
+    </row>
+    <row r="867">
+      <c r="C867" s="17"/>
+    </row>
+    <row r="868">
+      <c r="C868" s="17"/>
+    </row>
+    <row r="869">
+      <c r="C869" s="17"/>
+    </row>
+    <row r="870">
+      <c r="C870" s="17"/>
+    </row>
+    <row r="871">
+      <c r="C871" s="17"/>
+    </row>
+    <row r="872">
+      <c r="C872" s="17"/>
+    </row>
+    <row r="873">
+      <c r="C873" s="17"/>
+    </row>
+    <row r="874">
+      <c r="C874" s="17"/>
+    </row>
+    <row r="875">
+      <c r="C875" s="17"/>
+    </row>
+    <row r="876">
+      <c r="C876" s="17"/>
+    </row>
+    <row r="877">
+      <c r="C877" s="17"/>
+    </row>
+    <row r="878">
+      <c r="C878" s="17"/>
+    </row>
+    <row r="879">
+      <c r="C879" s="17"/>
+    </row>
+    <row r="880">
+      <c r="C880" s="17"/>
+    </row>
+    <row r="881">
+      <c r="C881" s="17"/>
+    </row>
+    <row r="882">
+      <c r="C882" s="17"/>
+    </row>
+    <row r="883">
+      <c r="C883" s="17"/>
+    </row>
+    <row r="884">
+      <c r="C884" s="17"/>
+    </row>
+    <row r="885">
+      <c r="C885" s="17"/>
+    </row>
+    <row r="886">
+      <c r="C886" s="17"/>
+    </row>
+    <row r="887">
+      <c r="C887" s="17"/>
+    </row>
+    <row r="888">
+      <c r="C888" s="17"/>
+    </row>
+    <row r="889">
+      <c r="C889" s="17"/>
+    </row>
+    <row r="890">
+      <c r="C890" s="17"/>
+    </row>
+    <row r="891">
+      <c r="C891" s="17"/>
+    </row>
+    <row r="892">
+      <c r="C892" s="17"/>
+    </row>
+    <row r="893">
+      <c r="C893" s="17"/>
+    </row>
+    <row r="894">
+      <c r="C894" s="17"/>
+    </row>
+    <row r="895">
+      <c r="C895" s="17"/>
+    </row>
+    <row r="896">
+      <c r="C896" s="17"/>
+    </row>
+    <row r="897">
+      <c r="C897" s="17"/>
+    </row>
+    <row r="898">
+      <c r="C898" s="17"/>
+    </row>
+    <row r="899">
+      <c r="C899" s="17"/>
+    </row>
+    <row r="900">
+      <c r="C900" s="17"/>
+    </row>
+    <row r="901">
+      <c r="C901" s="17"/>
+    </row>
+    <row r="902">
+      <c r="C902" s="17"/>
+    </row>
+    <row r="903">
+      <c r="C903" s="17"/>
+    </row>
+    <row r="904">
+      <c r="C904" s="17"/>
+    </row>
+    <row r="905">
+      <c r="C905" s="17"/>
+    </row>
+    <row r="906">
+      <c r="C906" s="17"/>
+    </row>
+    <row r="907">
+      <c r="C907" s="17"/>
+    </row>
+    <row r="908">
+      <c r="C908" s="17"/>
+    </row>
+    <row r="909">
+      <c r="C909" s="17"/>
+    </row>
+    <row r="910">
+      <c r="C910" s="17"/>
+    </row>
+    <row r="911">
+      <c r="C911" s="17"/>
+    </row>
+    <row r="912">
+      <c r="C912" s="17"/>
+    </row>
+    <row r="913">
+      <c r="C913" s="17"/>
+    </row>
+    <row r="914">
+      <c r="C914" s="17"/>
+    </row>
+    <row r="915">
+      <c r="C915" s="17"/>
+    </row>
+    <row r="916">
+      <c r="C916" s="17"/>
+    </row>
+    <row r="917">
+      <c r="C917" s="17"/>
+    </row>
+    <row r="918">
+      <c r="C918" s="17"/>
+    </row>
+    <row r="919">
+      <c r="C919" s="17"/>
+    </row>
+    <row r="920">
+      <c r="C920" s="17"/>
+    </row>
+    <row r="921">
+      <c r="C921" s="17"/>
+    </row>
+    <row r="922">
+      <c r="C922" s="17"/>
+    </row>
+    <row r="923">
+      <c r="C923" s="17"/>
+    </row>
+    <row r="924">
+      <c r="C924" s="17"/>
+    </row>
+    <row r="925">
+      <c r="C925" s="17"/>
+    </row>
+    <row r="926">
+      <c r="C926" s="17"/>
+    </row>
+    <row r="927">
+      <c r="C927" s="17"/>
+    </row>
+    <row r="928">
+      <c r="C928" s="17"/>
+    </row>
+    <row r="929">
+      <c r="C929" s="17"/>
+    </row>
+    <row r="930">
+      <c r="C930" s="17"/>
+    </row>
+    <row r="931">
+      <c r="C931" s="17"/>
+    </row>
+    <row r="932">
+      <c r="C932" s="17"/>
+    </row>
+    <row r="933">
+      <c r="C933" s="17"/>
+    </row>
+    <row r="934">
+      <c r="C934" s="17"/>
+    </row>
+    <row r="935">
+      <c r="C935" s="17"/>
+    </row>
+    <row r="936">
+      <c r="C936" s="17"/>
+    </row>
+    <row r="937">
+      <c r="C937" s="17"/>
+    </row>
+    <row r="938">
+      <c r="C938" s="17"/>
+    </row>
+    <row r="939">
+      <c r="C939" s="17"/>
+    </row>
+    <row r="940">
+      <c r="C940" s="17"/>
+    </row>
+    <row r="941">
+      <c r="C941" s="17"/>
+    </row>
+    <row r="942">
+      <c r="C942" s="17"/>
+    </row>
+    <row r="943">
+      <c r="C943" s="17"/>
+    </row>
+    <row r="944">
+      <c r="C944" s="17"/>
+    </row>
+    <row r="945">
+      <c r="C945" s="17"/>
+    </row>
+    <row r="946">
+      <c r="C946" s="17"/>
+    </row>
+    <row r="947">
+      <c r="C947" s="17"/>
+    </row>
+    <row r="948">
+      <c r="C948" s="17"/>
+    </row>
+    <row r="949">
+      <c r="C949" s="17"/>
+    </row>
+    <row r="950">
+      <c r="C950" s="17"/>
+    </row>
+    <row r="951">
+      <c r="C951" s="17"/>
+    </row>
+    <row r="952">
+      <c r="C952" s="17"/>
+    </row>
+    <row r="953">
+      <c r="C953" s="17"/>
+    </row>
+    <row r="954">
+      <c r="C954" s="17"/>
+    </row>
+    <row r="955">
+      <c r="C955" s="17"/>
+    </row>
+    <row r="956">
+      <c r="C956" s="17"/>
+    </row>
+    <row r="957">
+      <c r="C957" s="17"/>
+    </row>
+    <row r="958">
+      <c r="C958" s="17"/>
+    </row>
+    <row r="959">
+      <c r="C959" s="17"/>
+    </row>
+    <row r="960">
+      <c r="C960" s="17"/>
+    </row>
+    <row r="961">
+      <c r="C961" s="17"/>
+    </row>
+    <row r="962">
+      <c r="C962" s="17"/>
+    </row>
+    <row r="963">
+      <c r="C963" s="17"/>
+    </row>
+    <row r="964">
+      <c r="C964" s="17"/>
+    </row>
+    <row r="965">
+      <c r="C965" s="17"/>
+    </row>
+    <row r="966">
+      <c r="C966" s="17"/>
+    </row>
+    <row r="967">
+      <c r="C967" s="17"/>
+    </row>
+    <row r="968">
+      <c r="C968" s="17"/>
+    </row>
+    <row r="969">
+      <c r="C969" s="17"/>
+    </row>
+    <row r="970">
+      <c r="C970" s="17"/>
+    </row>
+    <row r="971">
+      <c r="C971" s="17"/>
+    </row>
+    <row r="972">
+      <c r="C972" s="17"/>
+    </row>
+    <row r="973">
+      <c r="C973" s="17"/>
+    </row>
+    <row r="974">
+      <c r="C974" s="17"/>
+    </row>
+    <row r="975">
+      <c r="C975" s="17"/>
+    </row>
+    <row r="976">
+      <c r="C976" s="17"/>
+    </row>
+    <row r="977">
+      <c r="C977" s="17"/>
+    </row>
+    <row r="978">
+      <c r="C978" s="17"/>
+    </row>
+    <row r="979">
+      <c r="C979" s="17"/>
+    </row>
+    <row r="980">
+      <c r="C980" s="17"/>
+    </row>
+    <row r="981">
+      <c r="C981" s="17"/>
+    </row>
+    <row r="982">
+      <c r="C982" s="17"/>
+    </row>
+    <row r="983">
+      <c r="C983" s="17"/>
+    </row>
+    <row r="984">
+      <c r="C984" s="17"/>
+    </row>
+    <row r="985">
+      <c r="C985" s="17"/>
+    </row>
+    <row r="986">
+      <c r="C986" s="17"/>
+    </row>
+    <row r="987">
+      <c r="C987" s="17"/>
+    </row>
+    <row r="988">
+      <c r="C988" s="17"/>
+    </row>
+    <row r="989">
+      <c r="C989" s="17"/>
+    </row>
+    <row r="990">
+      <c r="C990" s="17"/>
+    </row>
+    <row r="991">
+      <c r="C991" s="17"/>
+    </row>
+    <row r="992">
+      <c r="C992" s="17"/>
+    </row>
+    <row r="993">
+      <c r="C993" s="17"/>
+    </row>
+    <row r="994">
+      <c r="C994" s="17"/>
+    </row>
+    <row r="995">
+      <c r="C995" s="17"/>
+    </row>
+    <row r="996">
+      <c r="C996" s="17"/>
+    </row>
+    <row r="997">
+      <c r="C997" s="17"/>
+    </row>
+    <row r="998">
+      <c r="C998" s="17"/>
+    </row>
+    <row r="999">
+      <c r="C999" s="17"/>
+    </row>
+    <row r="1000">
+      <c r="C1000" s="17"/>
+    </row>
+    <row r="1001">
+      <c r="C1001" s="17"/>
+    </row>
+    <row r="1002">
+      <c r="C1002" s="17"/>
+    </row>
+    <row r="1003">
+      <c r="C1003" s="17"/>
+    </row>
+    <row r="1004">
+      <c r="C1004" s="17"/>
+    </row>
+    <row r="1005">
+      <c r="C1005" s="17"/>
+    </row>
+    <row r="1006">
+      <c r="C1006" s="17"/>
+    </row>
+    <row r="1007">
+      <c r="C1007" s="17"/>
+    </row>
+    <row r="1008">
+      <c r="C1008" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A102:C102"/>
+  </mergeCells>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Нажмите здесь и введите значение из списка." sqref="C5:C19 C21:C35 C37:C52 C54:C87 C89:C93 C95:C101 C103:C104">
+      <formula1>"PASS,FAIL,TO DO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="96">
   <si>
     <t>Чек-лист для проверки валидации полей формы "Добавить карточку клиента на дашборд"</t>
   </si>
@@ -58,6 +58,9 @@
     <t>Зполнить поле только пробелами - поле считается незаполненным</t>
   </si>
   <si>
+    <t>Ввести имя с пробелом внутри - значение задано в поле</t>
+  </si>
+  <si>
     <t>Ввести больше 30 символов, снять фокус с поля - поле выделено красным, под полем тект ошибки "Можно ввести не более 30 символов"</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>Ввести 1 символ, снять фокус с поля - Введен 1 символ, значение задано в поле</t>
   </si>
   <si>
+    <t>Ввести 2 символа, снять фокус с поля - Введено 2 символа, значение задано в поле</t>
+  </si>
+  <si>
     <t>Ввести 10 символов, снять фокус с поля - Введено 10 символов, значение задано в поле</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
     <t>Поле названо "Фамилия", название поле расположено над ним слева вверху</t>
   </si>
   <si>
+    <t>Ввести фамилию с пробелом внутри - значение задано в поле</t>
+  </si>
+  <si>
     <t>Попробовать ввести больше 30 символов, снять фокус с поля - поле выделено красным, под полем тект ошибки "Можно ввести не более 30 символов"</t>
   </si>
   <si>
@@ -283,7 +292,7 @@
     <t>Загрузить файл в формате pdf размером &gt; 3мб  - файл не загружен, справа от блока отображается текст ошибки "Некорректный файл. Допустимый формат: pdf. Допустимый размер файла: не более 3 мб"</t>
   </si>
   <si>
-    <t>Общие</t>
+    <t>Обязательность</t>
   </si>
   <si>
     <t>Оставить все поля пустыми, кликнуть на добавить - все пустые поля выделены красным, окно не закрывается, под каждым пустым полем текст ошибки "поле не может быть пустым"</t>
@@ -329,7 +338,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +361,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -447,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -480,7 +495,13 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -787,7 +808,7 @@
       <c r="A9" s="12">
         <v>5.0</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -798,7 +819,7 @@
       <c r="A10" s="12">
         <v>6.0</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -809,7 +830,7 @@
       <c r="A11" s="12">
         <v>7.0</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -820,7 +841,7 @@
       <c r="A12" s="12">
         <v>8.0</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -831,7 +852,7 @@
       <c r="A13" s="12">
         <v>9.0</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -842,7 +863,7 @@
       <c r="A14" s="12">
         <v>10.0</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -853,7 +874,7 @@
       <c r="A15" s="12">
         <v>11.0</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -864,7 +885,7 @@
       <c r="A16" s="12">
         <v>12.0</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -875,7 +896,7 @@
       <c r="A17" s="12">
         <v>13.0</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -886,7 +907,7 @@
       <c r="A18" s="12">
         <v>14.0</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -905,17 +926,21 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
+      <c r="C20" s="14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="12">
-        <v>16.0</v>
-      </c>
-      <c r="B21" s="13" t="s">
+        <v>17.0</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -923,22 +948,18 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="12">
-        <v>17.0</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23">
       <c r="A23" s="12">
         <v>18.0</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>6</v>
@@ -949,7 +970,7 @@
         <v>19.0</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>6</v>
@@ -960,7 +981,7 @@
         <v>20.0</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>6</v>
@@ -971,7 +992,7 @@
         <v>21.0</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>6</v>
@@ -982,7 +1003,7 @@
         <v>22.0</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>6</v>
@@ -993,7 +1014,7 @@
         <v>23.0</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>6</v>
@@ -1004,7 +1025,7 @@
         <v>24.0</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>6</v>
@@ -1015,7 +1036,7 @@
         <v>25.0</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>6</v>
@@ -1026,7 +1047,7 @@
         <v>26.0</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>6</v>
@@ -1036,8 +1057,8 @@
       <c r="A32" s="12">
         <v>27.0</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>17</v>
+      <c r="B32" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>6</v>
@@ -1048,7 +1069,7 @@
         <v>28.0</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>6</v>
@@ -1059,7 +1080,7 @@
         <v>29.0</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>6</v>
@@ -1069,26 +1090,30 @@
       <c r="A35" s="12">
         <v>30.0</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>20</v>
+      <c r="B35" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="12">
+        <v>31.0</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="12">
-        <v>31.0</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>26</v>
+        <v>32.0</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>6</v>
@@ -1096,10 +1121,10 @@
     </row>
     <row r="38">
       <c r="A38" s="12">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>6</v>
@@ -1107,32 +1132,28 @@
     </row>
     <row r="39">
       <c r="A39" s="12">
-        <v>33.0</v>
-      </c>
-      <c r="B39" s="13" t="s">
+        <v>34.0</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="12">
-        <v>34.0</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41">
       <c r="A41" s="12">
         <v>35.0</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>6</v>
@@ -1176,7 +1197,7 @@
         <v>39.0</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>6</v>
@@ -1186,8 +1207,8 @@
       <c r="A46" s="12">
         <v>40.0</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>34</v>
+      <c r="B46" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>6</v>
@@ -1197,8 +1218,8 @@
       <c r="A47" s="12">
         <v>41.0</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>35</v>
+      <c r="B47" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>6</v>
@@ -1208,8 +1229,8 @@
       <c r="A48" s="12">
         <v>42.0</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>36</v>
+      <c r="B48" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>6</v>
@@ -1219,8 +1240,8 @@
       <c r="A49" s="12">
         <v>43.0</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>37</v>
+      <c r="B49" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>6</v>
@@ -1230,8 +1251,8 @@
       <c r="A50" s="12">
         <v>44.0</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>38</v>
+      <c r="B50" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>6</v>
@@ -1242,7 +1263,7 @@
         <v>45.0</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>6</v>
@@ -1253,25 +1274,29 @@
         <v>46.0</v>
       </c>
       <c r="B52" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="12">
+        <v>47.0</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="11"/>
+      <c r="C53" s="14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="12">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>6</v>
@@ -1279,10 +1304,10 @@
     </row>
     <row r="55">
       <c r="A55" s="12">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>6</v>
@@ -1290,32 +1315,28 @@
     </row>
     <row r="56">
       <c r="A56" s="12">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="B56" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="12">
-        <v>50.0</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
     </row>
     <row r="58">
       <c r="A58" s="12">
         <v>51.0</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>6</v>
@@ -1326,7 +1347,7 @@
         <v>52.0</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>6</v>
@@ -1337,7 +1358,7 @@
         <v>53.0</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>6</v>
@@ -1348,7 +1369,7 @@
         <v>54.0</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>6</v>
@@ -1359,7 +1380,7 @@
         <v>55.0</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>6</v>
@@ -1370,7 +1391,7 @@
         <v>56.0</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>6</v>
@@ -1381,7 +1402,7 @@
         <v>57.0</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>6</v>
@@ -1392,7 +1413,7 @@
         <v>58.0</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>6</v>
@@ -1403,7 +1424,7 @@
         <v>59.0</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>6</v>
@@ -1414,7 +1435,7 @@
         <v>60.0</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>6</v>
@@ -1425,7 +1446,7 @@
         <v>61.0</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>6</v>
@@ -1436,7 +1457,7 @@
         <v>62.0</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>6</v>
@@ -1447,7 +1468,7 @@
         <v>63.0</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>6</v>
@@ -1458,7 +1479,7 @@
         <v>64.0</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>6</v>
@@ -1469,7 +1490,7 @@
         <v>65.0</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>6</v>
@@ -1480,7 +1501,7 @@
         <v>66.0</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>6</v>
@@ -1491,7 +1512,7 @@
         <v>67.0</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>6</v>
@@ -1502,7 +1523,7 @@
         <v>68.0</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>6</v>
@@ -1513,7 +1534,7 @@
         <v>69.0</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>6</v>
@@ -1524,7 +1545,7 @@
         <v>70.0</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>6</v>
@@ -1535,7 +1556,7 @@
         <v>71.0</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>6</v>
@@ -1546,7 +1567,7 @@
         <v>72.0</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>6</v>
@@ -1557,7 +1578,7 @@
         <v>73.0</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>6</v>
@@ -1568,7 +1589,7 @@
         <v>74.0</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>6</v>
@@ -1579,7 +1600,7 @@
         <v>75.0</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>6</v>
@@ -1590,7 +1611,7 @@
         <v>76.0</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>6</v>
@@ -1601,7 +1622,7 @@
         <v>77.0</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>6</v>
@@ -1612,7 +1633,7 @@
         <v>78.0</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>6</v>
@@ -1623,7 +1644,7 @@
         <v>79.0</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>6</v>
@@ -1634,25 +1655,29 @@
         <v>80.0</v>
       </c>
       <c r="B87" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="12">
+        <v>81.0</v>
+      </c>
+      <c r="B88" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C87" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="11"/>
+      <c r="C88" s="14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="12">
-        <v>81.0</v>
+        <v>82.0</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>6</v>
@@ -1660,10 +1685,10 @@
     </row>
     <row r="90">
       <c r="A90" s="12">
-        <v>82.0</v>
+        <v>83.0</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>6</v>
@@ -1671,50 +1696,50 @@
     </row>
     <row r="91">
       <c r="A91" s="12">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
       <c r="B91" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C91" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="12">
-        <v>84.0</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="11"/>
     </row>
     <row r="93">
       <c r="A93" s="12">
         <v>85.0</v>
       </c>
       <c r="B93" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="12">
+        <v>86.0</v>
+      </c>
+      <c r="B94" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C93" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="11"/>
+      <c r="C94" s="14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="12">
-        <v>86.0</v>
+        <v>87.0</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>6</v>
@@ -1722,10 +1747,10 @@
     </row>
     <row r="96">
       <c r="A96" s="12">
-        <v>87.0</v>
+        <v>88.0</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>6</v>
@@ -1733,32 +1758,28 @@
     </row>
     <row r="97">
       <c r="A97" s="12">
-        <v>88.0</v>
+        <v>89.0</v>
       </c>
       <c r="B97" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C97" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="12">
-        <v>89.0</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="11"/>
     </row>
     <row r="99">
       <c r="A99" s="12">
         <v>90.0</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>6</v>
@@ -1769,7 +1790,7 @@
         <v>91.0</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>6</v>
@@ -1780,25 +1801,29 @@
         <v>92.0</v>
       </c>
       <c r="B101" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="12">
+        <v>93.0</v>
+      </c>
+      <c r="B102" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C101" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="11"/>
+      <c r="C102" s="14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="12">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>6</v>
@@ -1806,2740 +1831,2780 @@
     </row>
     <row r="104">
       <c r="A104" s="12">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="B104" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="12">
+        <v>96.0</v>
+      </c>
+      <c r="B105" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C104" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="C105" s="17"/>
+      <c r="C105" s="14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="106">
-      <c r="C106" s="17"/>
+      <c r="A106" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106" s="10"/>
+      <c r="C106" s="11"/>
     </row>
     <row r="107">
-      <c r="C107" s="17"/>
+      <c r="A107" s="12">
+        <v>97.0</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="108">
-      <c r="C108" s="17"/>
+      <c r="A108" s="12">
+        <v>98.0</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="109">
-      <c r="C109" s="17"/>
+      <c r="C109" s="19"/>
     </row>
     <row r="110">
-      <c r="C110" s="17"/>
+      <c r="C110" s="19"/>
     </row>
     <row r="111">
-      <c r="C111" s="17"/>
+      <c r="C111" s="19"/>
     </row>
     <row r="112">
-      <c r="C112" s="17"/>
+      <c r="C112" s="19"/>
     </row>
     <row r="113">
-      <c r="C113" s="17"/>
+      <c r="C113" s="19"/>
     </row>
     <row r="114">
-      <c r="C114" s="17"/>
+      <c r="C114" s="19"/>
     </row>
     <row r="115">
-      <c r="C115" s="17"/>
+      <c r="C115" s="19"/>
     </row>
     <row r="116">
-      <c r="C116" s="17"/>
+      <c r="C116" s="19"/>
     </row>
     <row r="117">
-      <c r="C117" s="17"/>
+      <c r="C117" s="19"/>
     </row>
     <row r="118">
-      <c r="C118" s="17"/>
+      <c r="C118" s="19"/>
     </row>
     <row r="119">
-      <c r="C119" s="17"/>
+      <c r="C119" s="19"/>
     </row>
     <row r="120">
-      <c r="C120" s="17"/>
+      <c r="C120" s="19"/>
     </row>
     <row r="121">
-      <c r="C121" s="17"/>
+      <c r="C121" s="19"/>
     </row>
     <row r="122">
-      <c r="C122" s="17"/>
+      <c r="C122" s="19"/>
     </row>
     <row r="123">
-      <c r="C123" s="17"/>
+      <c r="C123" s="19"/>
     </row>
     <row r="124">
-      <c r="C124" s="17"/>
+      <c r="C124" s="19"/>
     </row>
     <row r="125">
-      <c r="C125" s="17"/>
+      <c r="C125" s="19"/>
     </row>
     <row r="126">
-      <c r="C126" s="17"/>
+      <c r="C126" s="19"/>
     </row>
     <row r="127">
-      <c r="C127" s="17"/>
+      <c r="C127" s="19"/>
     </row>
     <row r="128">
-      <c r="C128" s="17"/>
+      <c r="C128" s="19"/>
     </row>
     <row r="129">
-      <c r="C129" s="17"/>
+      <c r="C129" s="19"/>
     </row>
     <row r="130">
-      <c r="C130" s="17"/>
+      <c r="C130" s="19"/>
     </row>
     <row r="131">
-      <c r="C131" s="17"/>
+      <c r="C131" s="19"/>
     </row>
     <row r="132">
-      <c r="C132" s="17"/>
+      <c r="C132" s="19"/>
     </row>
     <row r="133">
-      <c r="C133" s="17"/>
+      <c r="C133" s="19"/>
     </row>
     <row r="134">
-      <c r="C134" s="17"/>
+      <c r="C134" s="19"/>
     </row>
     <row r="135">
-      <c r="C135" s="17"/>
+      <c r="C135" s="19"/>
     </row>
     <row r="136">
-      <c r="C136" s="17"/>
+      <c r="C136" s="19"/>
     </row>
     <row r="137">
-      <c r="C137" s="17"/>
+      <c r="C137" s="19"/>
     </row>
     <row r="138">
-      <c r="C138" s="17"/>
+      <c r="C138" s="19"/>
     </row>
     <row r="139">
-      <c r="C139" s="17"/>
+      <c r="C139" s="19"/>
     </row>
     <row r="140">
-      <c r="C140" s="17"/>
+      <c r="C140" s="19"/>
     </row>
     <row r="141">
-      <c r="C141" s="17"/>
+      <c r="C141" s="19"/>
     </row>
     <row r="142">
-      <c r="C142" s="17"/>
+      <c r="C142" s="19"/>
     </row>
     <row r="143">
-      <c r="C143" s="17"/>
+      <c r="C143" s="19"/>
     </row>
     <row r="144">
-      <c r="C144" s="17"/>
+      <c r="C144" s="19"/>
     </row>
     <row r="145">
-      <c r="C145" s="17"/>
+      <c r="C145" s="19"/>
     </row>
     <row r="146">
-      <c r="C146" s="17"/>
+      <c r="C146" s="19"/>
     </row>
     <row r="147">
-      <c r="C147" s="17"/>
+      <c r="C147" s="19"/>
     </row>
     <row r="148">
-      <c r="C148" s="17"/>
+      <c r="C148" s="19"/>
     </row>
     <row r="149">
-      <c r="C149" s="17"/>
+      <c r="C149" s="19"/>
     </row>
     <row r="150">
-      <c r="C150" s="17"/>
+      <c r="C150" s="19"/>
     </row>
     <row r="151">
-      <c r="C151" s="17"/>
+      <c r="C151" s="19"/>
     </row>
     <row r="152">
-      <c r="C152" s="17"/>
+      <c r="C152" s="19"/>
     </row>
     <row r="153">
-      <c r="C153" s="17"/>
+      <c r="C153" s="19"/>
     </row>
     <row r="154">
-      <c r="C154" s="17"/>
+      <c r="C154" s="19"/>
     </row>
     <row r="155">
-      <c r="C155" s="17"/>
+      <c r="C155" s="19"/>
     </row>
     <row r="156">
-      <c r="C156" s="17"/>
+      <c r="C156" s="19"/>
     </row>
     <row r="157">
-      <c r="C157" s="17"/>
+      <c r="C157" s="19"/>
     </row>
     <row r="158">
-      <c r="C158" s="17"/>
+      <c r="C158" s="19"/>
     </row>
     <row r="159">
-      <c r="C159" s="17"/>
+      <c r="C159" s="19"/>
     </row>
     <row r="160">
-      <c r="C160" s="17"/>
+      <c r="C160" s="19"/>
     </row>
     <row r="161">
-      <c r="C161" s="17"/>
+      <c r="C161" s="19"/>
     </row>
     <row r="162">
-      <c r="C162" s="17"/>
+      <c r="C162" s="19"/>
     </row>
     <row r="163">
-      <c r="C163" s="17"/>
+      <c r="C163" s="19"/>
     </row>
     <row r="164">
-      <c r="C164" s="17"/>
+      <c r="C164" s="19"/>
     </row>
     <row r="165">
-      <c r="C165" s="17"/>
+      <c r="C165" s="19"/>
     </row>
     <row r="166">
-      <c r="C166" s="17"/>
+      <c r="C166" s="19"/>
     </row>
     <row r="167">
-      <c r="C167" s="17"/>
+      <c r="C167" s="19"/>
     </row>
     <row r="168">
-      <c r="C168" s="17"/>
+      <c r="C168" s="19"/>
     </row>
     <row r="169">
-      <c r="C169" s="17"/>
+      <c r="C169" s="19"/>
     </row>
     <row r="170">
-      <c r="C170" s="17"/>
+      <c r="C170" s="19"/>
     </row>
     <row r="171">
-      <c r="C171" s="17"/>
+      <c r="C171" s="19"/>
     </row>
     <row r="172">
-      <c r="C172" s="17"/>
+      <c r="C172" s="19"/>
     </row>
     <row r="173">
-      <c r="C173" s="17"/>
+      <c r="C173" s="19"/>
     </row>
     <row r="174">
-      <c r="C174" s="17"/>
+      <c r="C174" s="19"/>
     </row>
     <row r="175">
-      <c r="C175" s="17"/>
+      <c r="C175" s="19"/>
     </row>
     <row r="176">
-      <c r="C176" s="17"/>
+      <c r="C176" s="19"/>
     </row>
     <row r="177">
-      <c r="C177" s="17"/>
+      <c r="C177" s="19"/>
     </row>
     <row r="178">
-      <c r="C178" s="17"/>
+      <c r="C178" s="19"/>
     </row>
     <row r="179">
-      <c r="C179" s="17"/>
+      <c r="C179" s="19"/>
     </row>
     <row r="180">
-      <c r="C180" s="17"/>
+      <c r="C180" s="19"/>
     </row>
     <row r="181">
-      <c r="C181" s="17"/>
+      <c r="C181" s="19"/>
     </row>
     <row r="182">
-      <c r="C182" s="17"/>
+      <c r="C182" s="19"/>
     </row>
     <row r="183">
-      <c r="C183" s="17"/>
+      <c r="C183" s="19"/>
     </row>
     <row r="184">
-      <c r="C184" s="17"/>
+      <c r="C184" s="19"/>
     </row>
     <row r="185">
-      <c r="C185" s="17"/>
+      <c r="C185" s="19"/>
     </row>
     <row r="186">
-      <c r="C186" s="17"/>
+      <c r="C186" s="19"/>
     </row>
     <row r="187">
-      <c r="C187" s="17"/>
+      <c r="C187" s="19"/>
     </row>
     <row r="188">
-      <c r="C188" s="17"/>
+      <c r="C188" s="19"/>
     </row>
     <row r="189">
-      <c r="C189" s="17"/>
+      <c r="C189" s="19"/>
     </row>
     <row r="190">
-      <c r="C190" s="17"/>
+      <c r="C190" s="19"/>
     </row>
     <row r="191">
-      <c r="C191" s="17"/>
+      <c r="C191" s="19"/>
     </row>
     <row r="192">
-      <c r="C192" s="17"/>
+      <c r="C192" s="19"/>
     </row>
     <row r="193">
-      <c r="C193" s="17"/>
+      <c r="C193" s="19"/>
     </row>
     <row r="194">
-      <c r="C194" s="17"/>
+      <c r="C194" s="19"/>
     </row>
     <row r="195">
-      <c r="C195" s="17"/>
+      <c r="C195" s="19"/>
     </row>
     <row r="196">
-      <c r="C196" s="17"/>
+      <c r="C196" s="19"/>
     </row>
     <row r="197">
-      <c r="C197" s="17"/>
+      <c r="C197" s="19"/>
     </row>
     <row r="198">
-      <c r="C198" s="17"/>
+      <c r="C198" s="19"/>
     </row>
     <row r="199">
-      <c r="C199" s="17"/>
+      <c r="C199" s="19"/>
     </row>
     <row r="200">
-      <c r="C200" s="17"/>
+      <c r="C200" s="19"/>
     </row>
     <row r="201">
-      <c r="C201" s="17"/>
+      <c r="C201" s="19"/>
     </row>
     <row r="202">
-      <c r="C202" s="17"/>
+      <c r="C202" s="19"/>
     </row>
     <row r="203">
-      <c r="C203" s="17"/>
+      <c r="C203" s="19"/>
     </row>
     <row r="204">
-      <c r="C204" s="17"/>
+      <c r="C204" s="19"/>
     </row>
     <row r="205">
-      <c r="C205" s="17"/>
+      <c r="C205" s="19"/>
     </row>
     <row r="206">
-      <c r="C206" s="17"/>
+      <c r="C206" s="19"/>
     </row>
     <row r="207">
-      <c r="C207" s="17"/>
+      <c r="C207" s="19"/>
     </row>
     <row r="208">
-      <c r="C208" s="17"/>
+      <c r="C208" s="19"/>
     </row>
     <row r="209">
-      <c r="C209" s="17"/>
+      <c r="C209" s="19"/>
     </row>
     <row r="210">
-      <c r="C210" s="17"/>
+      <c r="C210" s="19"/>
     </row>
     <row r="211">
-      <c r="C211" s="17"/>
+      <c r="C211" s="19"/>
     </row>
     <row r="212">
-      <c r="C212" s="17"/>
+      <c r="C212" s="19"/>
     </row>
     <row r="213">
-      <c r="C213" s="17"/>
+      <c r="C213" s="19"/>
     </row>
     <row r="214">
-      <c r="C214" s="17"/>
+      <c r="C214" s="19"/>
     </row>
     <row r="215">
-      <c r="C215" s="17"/>
+      <c r="C215" s="19"/>
     </row>
     <row r="216">
-      <c r="C216" s="17"/>
+      <c r="C216" s="19"/>
     </row>
     <row r="217">
-      <c r="C217" s="17"/>
+      <c r="C217" s="19"/>
     </row>
     <row r="218">
-      <c r="C218" s="17"/>
+      <c r="C218" s="19"/>
     </row>
     <row r="219">
-      <c r="C219" s="17"/>
+      <c r="C219" s="19"/>
     </row>
     <row r="220">
-      <c r="C220" s="17"/>
+      <c r="C220" s="19"/>
     </row>
     <row r="221">
-      <c r="C221" s="17"/>
+      <c r="C221" s="19"/>
     </row>
     <row r="222">
-      <c r="C222" s="17"/>
+      <c r="C222" s="19"/>
     </row>
     <row r="223">
-      <c r="C223" s="17"/>
+      <c r="C223" s="19"/>
     </row>
     <row r="224">
-      <c r="C224" s="17"/>
+      <c r="C224" s="19"/>
     </row>
     <row r="225">
-      <c r="C225" s="17"/>
+      <c r="C225" s="19"/>
     </row>
     <row r="226">
-      <c r="C226" s="17"/>
+      <c r="C226" s="19"/>
     </row>
     <row r="227">
-      <c r="C227" s="17"/>
+      <c r="C227" s="19"/>
     </row>
     <row r="228">
-      <c r="C228" s="17"/>
+      <c r="C228" s="19"/>
     </row>
     <row r="229">
-      <c r="C229" s="17"/>
+      <c r="C229" s="19"/>
     </row>
     <row r="230">
-      <c r="C230" s="17"/>
+      <c r="C230" s="19"/>
     </row>
     <row r="231">
-      <c r="C231" s="17"/>
+      <c r="C231" s="19"/>
     </row>
     <row r="232">
-      <c r="C232" s="17"/>
+      <c r="C232" s="19"/>
     </row>
     <row r="233">
-      <c r="C233" s="17"/>
+      <c r="C233" s="19"/>
     </row>
     <row r="234">
-      <c r="C234" s="17"/>
+      <c r="C234" s="19"/>
     </row>
     <row r="235">
-      <c r="C235" s="17"/>
+      <c r="C235" s="19"/>
     </row>
     <row r="236">
-      <c r="C236" s="17"/>
+      <c r="C236" s="19"/>
     </row>
     <row r="237">
-      <c r="C237" s="17"/>
+      <c r="C237" s="19"/>
     </row>
     <row r="238">
-      <c r="C238" s="17"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239">
-      <c r="C239" s="17"/>
+      <c r="C239" s="19"/>
     </row>
     <row r="240">
-      <c r="C240" s="17"/>
+      <c r="C240" s="19"/>
     </row>
     <row r="241">
-      <c r="C241" s="17"/>
+      <c r="C241" s="19"/>
     </row>
     <row r="242">
-      <c r="C242" s="17"/>
+      <c r="C242" s="19"/>
     </row>
     <row r="243">
-      <c r="C243" s="17"/>
+      <c r="C243" s="19"/>
     </row>
     <row r="244">
-      <c r="C244" s="17"/>
+      <c r="C244" s="19"/>
     </row>
     <row r="245">
-      <c r="C245" s="17"/>
+      <c r="C245" s="19"/>
     </row>
     <row r="246">
-      <c r="C246" s="17"/>
+      <c r="C246" s="19"/>
     </row>
     <row r="247">
-      <c r="C247" s="17"/>
+      <c r="C247" s="19"/>
     </row>
     <row r="248">
-      <c r="C248" s="17"/>
+      <c r="C248" s="19"/>
     </row>
     <row r="249">
-      <c r="C249" s="17"/>
+      <c r="C249" s="19"/>
     </row>
     <row r="250">
-      <c r="C250" s="17"/>
+      <c r="C250" s="19"/>
     </row>
     <row r="251">
-      <c r="C251" s="17"/>
+      <c r="C251" s="19"/>
     </row>
     <row r="252">
-      <c r="C252" s="17"/>
+      <c r="C252" s="19"/>
     </row>
     <row r="253">
-      <c r="C253" s="17"/>
+      <c r="C253" s="19"/>
     </row>
     <row r="254">
-      <c r="C254" s="17"/>
+      <c r="C254" s="19"/>
     </row>
     <row r="255">
-      <c r="C255" s="17"/>
+      <c r="C255" s="19"/>
     </row>
     <row r="256">
-      <c r="C256" s="17"/>
+      <c r="C256" s="19"/>
     </row>
     <row r="257">
-      <c r="C257" s="17"/>
+      <c r="C257" s="19"/>
     </row>
     <row r="258">
-      <c r="C258" s="17"/>
+      <c r="C258" s="19"/>
     </row>
     <row r="259">
-      <c r="C259" s="17"/>
+      <c r="C259" s="19"/>
     </row>
     <row r="260">
-      <c r="C260" s="17"/>
+      <c r="C260" s="19"/>
     </row>
     <row r="261">
-      <c r="C261" s="17"/>
+      <c r="C261" s="19"/>
     </row>
     <row r="262">
-      <c r="C262" s="17"/>
+      <c r="C262" s="19"/>
     </row>
     <row r="263">
-      <c r="C263" s="17"/>
+      <c r="C263" s="19"/>
     </row>
     <row r="264">
-      <c r="C264" s="17"/>
+      <c r="C264" s="19"/>
     </row>
     <row r="265">
-      <c r="C265" s="17"/>
+      <c r="C265" s="19"/>
     </row>
     <row r="266">
-      <c r="C266" s="17"/>
+      <c r="C266" s="19"/>
     </row>
     <row r="267">
-      <c r="C267" s="17"/>
+      <c r="C267" s="19"/>
     </row>
     <row r="268">
-      <c r="C268" s="17"/>
+      <c r="C268" s="19"/>
     </row>
     <row r="269">
-      <c r="C269" s="17"/>
+      <c r="C269" s="19"/>
     </row>
     <row r="270">
-      <c r="C270" s="17"/>
+      <c r="C270" s="19"/>
     </row>
     <row r="271">
-      <c r="C271" s="17"/>
+      <c r="C271" s="19"/>
     </row>
     <row r="272">
-      <c r="C272" s="17"/>
+      <c r="C272" s="19"/>
     </row>
     <row r="273">
-      <c r="C273" s="17"/>
+      <c r="C273" s="19"/>
     </row>
     <row r="274">
-      <c r="C274" s="17"/>
+      <c r="C274" s="19"/>
     </row>
     <row r="275">
-      <c r="C275" s="17"/>
+      <c r="C275" s="19"/>
     </row>
     <row r="276">
-      <c r="C276" s="17"/>
+      <c r="C276" s="19"/>
     </row>
     <row r="277">
-      <c r="C277" s="17"/>
+      <c r="C277" s="19"/>
     </row>
     <row r="278">
-      <c r="C278" s="17"/>
+      <c r="C278" s="19"/>
     </row>
     <row r="279">
-      <c r="C279" s="17"/>
+      <c r="C279" s="19"/>
     </row>
     <row r="280">
-      <c r="C280" s="17"/>
+      <c r="C280" s="19"/>
     </row>
     <row r="281">
-      <c r="C281" s="17"/>
+      <c r="C281" s="19"/>
     </row>
     <row r="282">
-      <c r="C282" s="17"/>
+      <c r="C282" s="19"/>
     </row>
     <row r="283">
-      <c r="C283" s="17"/>
+      <c r="C283" s="19"/>
     </row>
     <row r="284">
-      <c r="C284" s="17"/>
+      <c r="C284" s="19"/>
     </row>
     <row r="285">
-      <c r="C285" s="17"/>
+      <c r="C285" s="19"/>
     </row>
     <row r="286">
-      <c r="C286" s="17"/>
+      <c r="C286" s="19"/>
     </row>
     <row r="287">
-      <c r="C287" s="17"/>
+      <c r="C287" s="19"/>
     </row>
     <row r="288">
-      <c r="C288" s="17"/>
+      <c r="C288" s="19"/>
     </row>
     <row r="289">
-      <c r="C289" s="17"/>
+      <c r="C289" s="19"/>
     </row>
     <row r="290">
-      <c r="C290" s="17"/>
+      <c r="C290" s="19"/>
     </row>
     <row r="291">
-      <c r="C291" s="17"/>
+      <c r="C291" s="19"/>
     </row>
     <row r="292">
-      <c r="C292" s="17"/>
+      <c r="C292" s="19"/>
     </row>
     <row r="293">
-      <c r="C293" s="17"/>
+      <c r="C293" s="19"/>
     </row>
     <row r="294">
-      <c r="C294" s="17"/>
+      <c r="C294" s="19"/>
     </row>
     <row r="295">
-      <c r="C295" s="17"/>
+      <c r="C295" s="19"/>
     </row>
     <row r="296">
-      <c r="C296" s="17"/>
+      <c r="C296" s="19"/>
     </row>
     <row r="297">
-      <c r="C297" s="17"/>
+      <c r="C297" s="19"/>
     </row>
     <row r="298">
-      <c r="C298" s="17"/>
+      <c r="C298" s="19"/>
     </row>
     <row r="299">
-      <c r="C299" s="17"/>
+      <c r="C299" s="19"/>
     </row>
     <row r="300">
-      <c r="C300" s="17"/>
+      <c r="C300" s="19"/>
     </row>
     <row r="301">
-      <c r="C301" s="17"/>
+      <c r="C301" s="19"/>
     </row>
     <row r="302">
-      <c r="C302" s="17"/>
+      <c r="C302" s="19"/>
     </row>
     <row r="303">
-      <c r="C303" s="17"/>
+      <c r="C303" s="19"/>
     </row>
     <row r="304">
-      <c r="C304" s="17"/>
+      <c r="C304" s="19"/>
     </row>
     <row r="305">
-      <c r="C305" s="17"/>
+      <c r="C305" s="19"/>
     </row>
     <row r="306">
-      <c r="C306" s="17"/>
+      <c r="C306" s="19"/>
     </row>
     <row r="307">
-      <c r="C307" s="17"/>
+      <c r="C307" s="19"/>
     </row>
     <row r="308">
-      <c r="C308" s="17"/>
+      <c r="C308" s="19"/>
     </row>
     <row r="309">
-      <c r="C309" s="17"/>
+      <c r="C309" s="19"/>
     </row>
     <row r="310">
-      <c r="C310" s="17"/>
+      <c r="C310" s="19"/>
     </row>
     <row r="311">
-      <c r="C311" s="17"/>
+      <c r="C311" s="19"/>
     </row>
     <row r="312">
-      <c r="C312" s="17"/>
+      <c r="C312" s="19"/>
     </row>
     <row r="313">
-      <c r="C313" s="17"/>
+      <c r="C313" s="19"/>
     </row>
     <row r="314">
-      <c r="C314" s="17"/>
+      <c r="C314" s="19"/>
     </row>
     <row r="315">
-      <c r="C315" s="17"/>
+      <c r="C315" s="19"/>
     </row>
     <row r="316">
-      <c r="C316" s="17"/>
+      <c r="C316" s="19"/>
     </row>
     <row r="317">
-      <c r="C317" s="17"/>
+      <c r="C317" s="19"/>
     </row>
     <row r="318">
-      <c r="C318" s="17"/>
+      <c r="C318" s="19"/>
     </row>
     <row r="319">
-      <c r="C319" s="17"/>
+      <c r="C319" s="19"/>
     </row>
     <row r="320">
-      <c r="C320" s="17"/>
+      <c r="C320" s="19"/>
     </row>
     <row r="321">
-      <c r="C321" s="17"/>
+      <c r="C321" s="19"/>
     </row>
     <row r="322">
-      <c r="C322" s="17"/>
+      <c r="C322" s="19"/>
     </row>
     <row r="323">
-      <c r="C323" s="17"/>
+      <c r="C323" s="19"/>
     </row>
     <row r="324">
-      <c r="C324" s="17"/>
+      <c r="C324" s="19"/>
     </row>
     <row r="325">
-      <c r="C325" s="17"/>
+      <c r="C325" s="19"/>
     </row>
     <row r="326">
-      <c r="C326" s="17"/>
+      <c r="C326" s="19"/>
     </row>
     <row r="327">
-      <c r="C327" s="17"/>
+      <c r="C327" s="19"/>
     </row>
     <row r="328">
-      <c r="C328" s="17"/>
+      <c r="C328" s="19"/>
     </row>
     <row r="329">
-      <c r="C329" s="17"/>
+      <c r="C329" s="19"/>
     </row>
     <row r="330">
-      <c r="C330" s="17"/>
+      <c r="C330" s="19"/>
     </row>
     <row r="331">
-      <c r="C331" s="17"/>
+      <c r="C331" s="19"/>
     </row>
     <row r="332">
-      <c r="C332" s="17"/>
+      <c r="C332" s="19"/>
     </row>
     <row r="333">
-      <c r="C333" s="17"/>
+      <c r="C333" s="19"/>
     </row>
     <row r="334">
-      <c r="C334" s="17"/>
+      <c r="C334" s="19"/>
     </row>
     <row r="335">
-      <c r="C335" s="17"/>
+      <c r="C335" s="19"/>
     </row>
     <row r="336">
-      <c r="C336" s="17"/>
+      <c r="C336" s="19"/>
     </row>
     <row r="337">
-      <c r="C337" s="17"/>
+      <c r="C337" s="19"/>
     </row>
     <row r="338">
-      <c r="C338" s="17"/>
+      <c r="C338" s="19"/>
     </row>
     <row r="339">
-      <c r="C339" s="17"/>
+      <c r="C339" s="19"/>
     </row>
     <row r="340">
-      <c r="C340" s="17"/>
+      <c r="C340" s="19"/>
     </row>
     <row r="341">
-      <c r="C341" s="17"/>
+      <c r="C341" s="19"/>
     </row>
     <row r="342">
-      <c r="C342" s="17"/>
+      <c r="C342" s="19"/>
     </row>
     <row r="343">
-      <c r="C343" s="17"/>
+      <c r="C343" s="19"/>
     </row>
     <row r="344">
-      <c r="C344" s="17"/>
+      <c r="C344" s="19"/>
     </row>
     <row r="345">
-      <c r="C345" s="17"/>
+      <c r="C345" s="19"/>
     </row>
     <row r="346">
-      <c r="C346" s="17"/>
+      <c r="C346" s="19"/>
     </row>
     <row r="347">
-      <c r="C347" s="17"/>
+      <c r="C347" s="19"/>
     </row>
     <row r="348">
-      <c r="C348" s="17"/>
+      <c r="C348" s="19"/>
     </row>
     <row r="349">
-      <c r="C349" s="17"/>
+      <c r="C349" s="19"/>
     </row>
     <row r="350">
-      <c r="C350" s="17"/>
+      <c r="C350" s="19"/>
     </row>
     <row r="351">
-      <c r="C351" s="17"/>
+      <c r="C351" s="19"/>
     </row>
     <row r="352">
-      <c r="C352" s="17"/>
+      <c r="C352" s="19"/>
     </row>
     <row r="353">
-      <c r="C353" s="17"/>
+      <c r="C353" s="19"/>
     </row>
     <row r="354">
-      <c r="C354" s="17"/>
+      <c r="C354" s="19"/>
     </row>
     <row r="355">
-      <c r="C355" s="17"/>
+      <c r="C355" s="19"/>
     </row>
     <row r="356">
-      <c r="C356" s="17"/>
+      <c r="C356" s="19"/>
     </row>
     <row r="357">
-      <c r="C357" s="17"/>
+      <c r="C357" s="19"/>
     </row>
     <row r="358">
-      <c r="C358" s="17"/>
+      <c r="C358" s="19"/>
     </row>
     <row r="359">
-      <c r="C359" s="17"/>
+      <c r="C359" s="19"/>
     </row>
     <row r="360">
-      <c r="C360" s="17"/>
+      <c r="C360" s="19"/>
     </row>
     <row r="361">
-      <c r="C361" s="17"/>
+      <c r="C361" s="19"/>
     </row>
     <row r="362">
-      <c r="C362" s="17"/>
+      <c r="C362" s="19"/>
     </row>
     <row r="363">
-      <c r="C363" s="17"/>
+      <c r="C363" s="19"/>
     </row>
     <row r="364">
-      <c r="C364" s="17"/>
+      <c r="C364" s="19"/>
     </row>
     <row r="365">
-      <c r="C365" s="17"/>
+      <c r="C365" s="19"/>
     </row>
     <row r="366">
-      <c r="C366" s="17"/>
+      <c r="C366" s="19"/>
     </row>
     <row r="367">
-      <c r="C367" s="17"/>
+      <c r="C367" s="19"/>
     </row>
     <row r="368">
-      <c r="C368" s="17"/>
+      <c r="C368" s="19"/>
     </row>
     <row r="369">
-      <c r="C369" s="17"/>
+      <c r="C369" s="19"/>
     </row>
     <row r="370">
-      <c r="C370" s="17"/>
+      <c r="C370" s="19"/>
     </row>
     <row r="371">
-      <c r="C371" s="17"/>
+      <c r="C371" s="19"/>
     </row>
     <row r="372">
-      <c r="C372" s="17"/>
+      <c r="C372" s="19"/>
     </row>
     <row r="373">
-      <c r="C373" s="17"/>
+      <c r="C373" s="19"/>
     </row>
     <row r="374">
-      <c r="C374" s="17"/>
+      <c r="C374" s="19"/>
     </row>
     <row r="375">
-      <c r="C375" s="17"/>
+      <c r="C375" s="19"/>
     </row>
     <row r="376">
-      <c r="C376" s="17"/>
+      <c r="C376" s="19"/>
     </row>
     <row r="377">
-      <c r="C377" s="17"/>
+      <c r="C377" s="19"/>
     </row>
     <row r="378">
-      <c r="C378" s="17"/>
+      <c r="C378" s="19"/>
     </row>
     <row r="379">
-      <c r="C379" s="17"/>
+      <c r="C379" s="19"/>
     </row>
     <row r="380">
-      <c r="C380" s="17"/>
+      <c r="C380" s="19"/>
     </row>
     <row r="381">
-      <c r="C381" s="17"/>
+      <c r="C381" s="19"/>
     </row>
     <row r="382">
-      <c r="C382" s="17"/>
+      <c r="C382" s="19"/>
     </row>
     <row r="383">
-      <c r="C383" s="17"/>
+      <c r="C383" s="19"/>
     </row>
     <row r="384">
-      <c r="C384" s="17"/>
+      <c r="C384" s="19"/>
     </row>
     <row r="385">
-      <c r="C385" s="17"/>
+      <c r="C385" s="19"/>
     </row>
     <row r="386">
-      <c r="C386" s="17"/>
+      <c r="C386" s="19"/>
     </row>
     <row r="387">
-      <c r="C387" s="17"/>
+      <c r="C387" s="19"/>
     </row>
     <row r="388">
-      <c r="C388" s="17"/>
+      <c r="C388" s="19"/>
     </row>
     <row r="389">
-      <c r="C389" s="17"/>
+      <c r="C389" s="19"/>
     </row>
     <row r="390">
-      <c r="C390" s="17"/>
+      <c r="C390" s="19"/>
     </row>
     <row r="391">
-      <c r="C391" s="17"/>
+      <c r="C391" s="19"/>
     </row>
     <row r="392">
-      <c r="C392" s="17"/>
+      <c r="C392" s="19"/>
     </row>
     <row r="393">
-      <c r="C393" s="17"/>
+      <c r="C393" s="19"/>
     </row>
     <row r="394">
-      <c r="C394" s="17"/>
+      <c r="C394" s="19"/>
     </row>
     <row r="395">
-      <c r="C395" s="17"/>
+      <c r="C395" s="19"/>
     </row>
     <row r="396">
-      <c r="C396" s="17"/>
+      <c r="C396" s="19"/>
     </row>
     <row r="397">
-      <c r="C397" s="17"/>
+      <c r="C397" s="19"/>
     </row>
     <row r="398">
-      <c r="C398" s="17"/>
+      <c r="C398" s="19"/>
     </row>
     <row r="399">
-      <c r="C399" s="17"/>
+      <c r="C399" s="19"/>
     </row>
     <row r="400">
-      <c r="C400" s="17"/>
+      <c r="C400" s="19"/>
     </row>
     <row r="401">
-      <c r="C401" s="17"/>
+      <c r="C401" s="19"/>
     </row>
     <row r="402">
-      <c r="C402" s="17"/>
+      <c r="C402" s="19"/>
     </row>
     <row r="403">
-      <c r="C403" s="17"/>
+      <c r="C403" s="19"/>
     </row>
     <row r="404">
-      <c r="C404" s="17"/>
+      <c r="C404" s="19"/>
     </row>
     <row r="405">
-      <c r="C405" s="17"/>
+      <c r="C405" s="19"/>
     </row>
     <row r="406">
-      <c r="C406" s="17"/>
+      <c r="C406" s="19"/>
     </row>
     <row r="407">
-      <c r="C407" s="17"/>
+      <c r="C407" s="19"/>
     </row>
     <row r="408">
-      <c r="C408" s="17"/>
+      <c r="C408" s="19"/>
     </row>
     <row r="409">
-      <c r="C409" s="17"/>
+      <c r="C409" s="19"/>
     </row>
     <row r="410">
-      <c r="C410" s="17"/>
+      <c r="C410" s="19"/>
     </row>
     <row r="411">
-      <c r="C411" s="17"/>
+      <c r="C411" s="19"/>
     </row>
     <row r="412">
-      <c r="C412" s="17"/>
+      <c r="C412" s="19"/>
     </row>
     <row r="413">
-      <c r="C413" s="17"/>
+      <c r="C413" s="19"/>
     </row>
     <row r="414">
-      <c r="C414" s="17"/>
+      <c r="C414" s="19"/>
     </row>
     <row r="415">
-      <c r="C415" s="17"/>
+      <c r="C415" s="19"/>
     </row>
     <row r="416">
-      <c r="C416" s="17"/>
+      <c r="C416" s="19"/>
     </row>
     <row r="417">
-      <c r="C417" s="17"/>
+      <c r="C417" s="19"/>
     </row>
     <row r="418">
-      <c r="C418" s="17"/>
+      <c r="C418" s="19"/>
     </row>
     <row r="419">
-      <c r="C419" s="17"/>
+      <c r="C419" s="19"/>
     </row>
     <row r="420">
-      <c r="C420" s="17"/>
+      <c r="C420" s="19"/>
     </row>
     <row r="421">
-      <c r="C421" s="17"/>
+      <c r="C421" s="19"/>
     </row>
     <row r="422">
-      <c r="C422" s="17"/>
+      <c r="C422" s="19"/>
     </row>
     <row r="423">
-      <c r="C423" s="17"/>
+      <c r="C423" s="19"/>
     </row>
     <row r="424">
-      <c r="C424" s="17"/>
+      <c r="C424" s="19"/>
     </row>
     <row r="425">
-      <c r="C425" s="17"/>
+      <c r="C425" s="19"/>
     </row>
     <row r="426">
-      <c r="C426" s="17"/>
+      <c r="C426" s="19"/>
     </row>
     <row r="427">
-      <c r="C427" s="17"/>
+      <c r="C427" s="19"/>
     </row>
     <row r="428">
-      <c r="C428" s="17"/>
+      <c r="C428" s="19"/>
     </row>
     <row r="429">
-      <c r="C429" s="17"/>
+      <c r="C429" s="19"/>
     </row>
     <row r="430">
-      <c r="C430" s="17"/>
+      <c r="C430" s="19"/>
     </row>
     <row r="431">
-      <c r="C431" s="17"/>
+      <c r="C431" s="19"/>
     </row>
     <row r="432">
-      <c r="C432" s="17"/>
+      <c r="C432" s="19"/>
     </row>
     <row r="433">
-      <c r="C433" s="17"/>
+      <c r="C433" s="19"/>
     </row>
     <row r="434">
-      <c r="C434" s="17"/>
+      <c r="C434" s="19"/>
     </row>
     <row r="435">
-      <c r="C435" s="17"/>
+      <c r="C435" s="19"/>
     </row>
     <row r="436">
-      <c r="C436" s="17"/>
+      <c r="C436" s="19"/>
     </row>
     <row r="437">
-      <c r="C437" s="17"/>
+      <c r="C437" s="19"/>
     </row>
     <row r="438">
-      <c r="C438" s="17"/>
+      <c r="C438" s="19"/>
     </row>
     <row r="439">
-      <c r="C439" s="17"/>
+      <c r="C439" s="19"/>
     </row>
     <row r="440">
-      <c r="C440" s="17"/>
+      <c r="C440" s="19"/>
     </row>
     <row r="441">
-      <c r="C441" s="17"/>
+      <c r="C441" s="19"/>
     </row>
     <row r="442">
-      <c r="C442" s="17"/>
+      <c r="C442" s="19"/>
     </row>
     <row r="443">
-      <c r="C443" s="17"/>
+      <c r="C443" s="19"/>
     </row>
     <row r="444">
-      <c r="C444" s="17"/>
+      <c r="C444" s="19"/>
     </row>
     <row r="445">
-      <c r="C445" s="17"/>
+      <c r="C445" s="19"/>
     </row>
     <row r="446">
-      <c r="C446" s="17"/>
+      <c r="C446" s="19"/>
     </row>
     <row r="447">
-      <c r="C447" s="17"/>
+      <c r="C447" s="19"/>
     </row>
     <row r="448">
-      <c r="C448" s="17"/>
+      <c r="C448" s="19"/>
     </row>
     <row r="449">
-      <c r="C449" s="17"/>
+      <c r="C449" s="19"/>
     </row>
     <row r="450">
-      <c r="C450" s="17"/>
+      <c r="C450" s="19"/>
     </row>
     <row r="451">
-      <c r="C451" s="17"/>
+      <c r="C451" s="19"/>
     </row>
     <row r="452">
-      <c r="C452" s="17"/>
+      <c r="C452" s="19"/>
     </row>
     <row r="453">
-      <c r="C453" s="17"/>
+      <c r="C453" s="19"/>
     </row>
     <row r="454">
-      <c r="C454" s="17"/>
+      <c r="C454" s="19"/>
     </row>
     <row r="455">
-      <c r="C455" s="17"/>
+      <c r="C455" s="19"/>
     </row>
     <row r="456">
-      <c r="C456" s="17"/>
+      <c r="C456" s="19"/>
     </row>
     <row r="457">
-      <c r="C457" s="17"/>
+      <c r="C457" s="19"/>
     </row>
     <row r="458">
-      <c r="C458" s="17"/>
+      <c r="C458" s="19"/>
     </row>
     <row r="459">
-      <c r="C459" s="17"/>
+      <c r="C459" s="19"/>
     </row>
     <row r="460">
-      <c r="C460" s="17"/>
+      <c r="C460" s="19"/>
     </row>
     <row r="461">
-      <c r="C461" s="17"/>
+      <c r="C461" s="19"/>
     </row>
     <row r="462">
-      <c r="C462" s="17"/>
+      <c r="C462" s="19"/>
     </row>
     <row r="463">
-      <c r="C463" s="17"/>
+      <c r="C463" s="19"/>
     </row>
     <row r="464">
-      <c r="C464" s="17"/>
+      <c r="C464" s="19"/>
     </row>
     <row r="465">
-      <c r="C465" s="17"/>
+      <c r="C465" s="19"/>
     </row>
     <row r="466">
-      <c r="C466" s="17"/>
+      <c r="C466" s="19"/>
     </row>
     <row r="467">
-      <c r="C467" s="17"/>
+      <c r="C467" s="19"/>
     </row>
     <row r="468">
-      <c r="C468" s="17"/>
+      <c r="C468" s="19"/>
     </row>
     <row r="469">
-      <c r="C469" s="17"/>
+      <c r="C469" s="19"/>
     </row>
     <row r="470">
-      <c r="C470" s="17"/>
+      <c r="C470" s="19"/>
     </row>
     <row r="471">
-      <c r="C471" s="17"/>
+      <c r="C471" s="19"/>
     </row>
     <row r="472">
-      <c r="C472" s="17"/>
+      <c r="C472" s="19"/>
     </row>
     <row r="473">
-      <c r="C473" s="17"/>
+      <c r="C473" s="19"/>
     </row>
     <row r="474">
-      <c r="C474" s="17"/>
+      <c r="C474" s="19"/>
     </row>
     <row r="475">
-      <c r="C475" s="17"/>
+      <c r="C475" s="19"/>
     </row>
     <row r="476">
-      <c r="C476" s="17"/>
+      <c r="C476" s="19"/>
     </row>
     <row r="477">
-      <c r="C477" s="17"/>
+      <c r="C477" s="19"/>
     </row>
     <row r="478">
-      <c r="C478" s="17"/>
+      <c r="C478" s="19"/>
     </row>
     <row r="479">
-      <c r="C479" s="17"/>
+      <c r="C479" s="19"/>
     </row>
     <row r="480">
-      <c r="C480" s="17"/>
+      <c r="C480" s="19"/>
     </row>
     <row r="481">
-      <c r="C481" s="17"/>
+      <c r="C481" s="19"/>
     </row>
     <row r="482">
-      <c r="C482" s="17"/>
+      <c r="C482" s="19"/>
     </row>
     <row r="483">
-      <c r="C483" s="17"/>
+      <c r="C483" s="19"/>
     </row>
     <row r="484">
-      <c r="C484" s="17"/>
+      <c r="C484" s="19"/>
     </row>
     <row r="485">
-      <c r="C485" s="17"/>
+      <c r="C485" s="19"/>
     </row>
     <row r="486">
-      <c r="C486" s="17"/>
+      <c r="C486" s="19"/>
     </row>
     <row r="487">
-      <c r="C487" s="17"/>
+      <c r="C487" s="19"/>
     </row>
     <row r="488">
-      <c r="C488" s="17"/>
+      <c r="C488" s="19"/>
     </row>
     <row r="489">
-      <c r="C489" s="17"/>
+      <c r="C489" s="19"/>
     </row>
     <row r="490">
-      <c r="C490" s="17"/>
+      <c r="C490" s="19"/>
     </row>
     <row r="491">
-      <c r="C491" s="17"/>
+      <c r="C491" s="19"/>
     </row>
     <row r="492">
-      <c r="C492" s="17"/>
+      <c r="C492" s="19"/>
     </row>
     <row r="493">
-      <c r="C493" s="17"/>
+      <c r="C493" s="19"/>
     </row>
     <row r="494">
-      <c r="C494" s="17"/>
+      <c r="C494" s="19"/>
     </row>
     <row r="495">
-      <c r="C495" s="17"/>
+      <c r="C495" s="19"/>
     </row>
     <row r="496">
-      <c r="C496" s="17"/>
+      <c r="C496" s="19"/>
     </row>
     <row r="497">
-      <c r="C497" s="17"/>
+      <c r="C497" s="19"/>
     </row>
     <row r="498">
-      <c r="C498" s="17"/>
+      <c r="C498" s="19"/>
     </row>
     <row r="499">
-      <c r="C499" s="17"/>
+      <c r="C499" s="19"/>
     </row>
     <row r="500">
-      <c r="C500" s="17"/>
+      <c r="C500" s="19"/>
     </row>
     <row r="501">
-      <c r="C501" s="17"/>
+      <c r="C501" s="19"/>
     </row>
     <row r="502">
-      <c r="C502" s="17"/>
+      <c r="C502" s="19"/>
     </row>
     <row r="503">
-      <c r="C503" s="17"/>
+      <c r="C503" s="19"/>
     </row>
     <row r="504">
-      <c r="C504" s="17"/>
+      <c r="C504" s="19"/>
     </row>
     <row r="505">
-      <c r="C505" s="17"/>
+      <c r="C505" s="19"/>
     </row>
     <row r="506">
-      <c r="C506" s="17"/>
+      <c r="C506" s="19"/>
     </row>
     <row r="507">
-      <c r="C507" s="17"/>
+      <c r="C507" s="19"/>
     </row>
     <row r="508">
-      <c r="C508" s="17"/>
+      <c r="C508" s="19"/>
     </row>
     <row r="509">
-      <c r="C509" s="17"/>
+      <c r="C509" s="19"/>
     </row>
     <row r="510">
-      <c r="C510" s="17"/>
+      <c r="C510" s="19"/>
     </row>
     <row r="511">
-      <c r="C511" s="17"/>
+      <c r="C511" s="19"/>
     </row>
     <row r="512">
-      <c r="C512" s="17"/>
+      <c r="C512" s="19"/>
     </row>
     <row r="513">
-      <c r="C513" s="17"/>
+      <c r="C513" s="19"/>
     </row>
     <row r="514">
-      <c r="C514" s="17"/>
+      <c r="C514" s="19"/>
     </row>
     <row r="515">
-      <c r="C515" s="17"/>
+      <c r="C515" s="19"/>
     </row>
     <row r="516">
-      <c r="C516" s="17"/>
+      <c r="C516" s="19"/>
     </row>
     <row r="517">
-      <c r="C517" s="17"/>
+      <c r="C517" s="19"/>
     </row>
     <row r="518">
-      <c r="C518" s="17"/>
+      <c r="C518" s="19"/>
     </row>
     <row r="519">
-      <c r="C519" s="17"/>
+      <c r="C519" s="19"/>
     </row>
     <row r="520">
-      <c r="C520" s="17"/>
+      <c r="C520" s="19"/>
     </row>
     <row r="521">
-      <c r="C521" s="17"/>
+      <c r="C521" s="19"/>
     </row>
     <row r="522">
-      <c r="C522" s="17"/>
+      <c r="C522" s="19"/>
     </row>
     <row r="523">
-      <c r="C523" s="17"/>
+      <c r="C523" s="19"/>
     </row>
     <row r="524">
-      <c r="C524" s="17"/>
+      <c r="C524" s="19"/>
     </row>
     <row r="525">
-      <c r="C525" s="17"/>
+      <c r="C525" s="19"/>
     </row>
     <row r="526">
-      <c r="C526" s="17"/>
+      <c r="C526" s="19"/>
     </row>
     <row r="527">
-      <c r="C527" s="17"/>
+      <c r="C527" s="19"/>
     </row>
     <row r="528">
-      <c r="C528" s="17"/>
+      <c r="C528" s="19"/>
     </row>
     <row r="529">
-      <c r="C529" s="17"/>
+      <c r="C529" s="19"/>
     </row>
     <row r="530">
-      <c r="C530" s="17"/>
+      <c r="C530" s="19"/>
     </row>
     <row r="531">
-      <c r="C531" s="17"/>
+      <c r="C531" s="19"/>
     </row>
     <row r="532">
-      <c r="C532" s="17"/>
+      <c r="C532" s="19"/>
     </row>
     <row r="533">
-      <c r="C533" s="17"/>
+      <c r="C533" s="19"/>
     </row>
     <row r="534">
-      <c r="C534" s="17"/>
+      <c r="C534" s="19"/>
     </row>
     <row r="535">
-      <c r="C535" s="17"/>
+      <c r="C535" s="19"/>
     </row>
     <row r="536">
-      <c r="C536" s="17"/>
+      <c r="C536" s="19"/>
     </row>
     <row r="537">
-      <c r="C537" s="17"/>
+      <c r="C537" s="19"/>
     </row>
     <row r="538">
-      <c r="C538" s="17"/>
+      <c r="C538" s="19"/>
     </row>
     <row r="539">
-      <c r="C539" s="17"/>
+      <c r="C539" s="19"/>
     </row>
     <row r="540">
-      <c r="C540" s="17"/>
+      <c r="C540" s="19"/>
     </row>
     <row r="541">
-      <c r="C541" s="17"/>
+      <c r="C541" s="19"/>
     </row>
     <row r="542">
-      <c r="C542" s="17"/>
+      <c r="C542" s="19"/>
     </row>
     <row r="543">
-      <c r="C543" s="17"/>
+      <c r="C543" s="19"/>
     </row>
     <row r="544">
-      <c r="C544" s="17"/>
+      <c r="C544" s="19"/>
     </row>
     <row r="545">
-      <c r="C545" s="17"/>
+      <c r="C545" s="19"/>
     </row>
     <row r="546">
-      <c r="C546" s="17"/>
+      <c r="C546" s="19"/>
     </row>
     <row r="547">
-      <c r="C547" s="17"/>
+      <c r="C547" s="19"/>
     </row>
     <row r="548">
-      <c r="C548" s="17"/>
+      <c r="C548" s="19"/>
     </row>
     <row r="549">
-      <c r="C549" s="17"/>
+      <c r="C549" s="19"/>
     </row>
     <row r="550">
-      <c r="C550" s="17"/>
+      <c r="C550" s="19"/>
     </row>
     <row r="551">
-      <c r="C551" s="17"/>
+      <c r="C551" s="19"/>
     </row>
     <row r="552">
-      <c r="C552" s="17"/>
+      <c r="C552" s="19"/>
     </row>
     <row r="553">
-      <c r="C553" s="17"/>
+      <c r="C553" s="19"/>
     </row>
     <row r="554">
-      <c r="C554" s="17"/>
+      <c r="C554" s="19"/>
     </row>
     <row r="555">
-      <c r="C555" s="17"/>
+      <c r="C555" s="19"/>
     </row>
     <row r="556">
-      <c r="C556" s="17"/>
+      <c r="C556" s="19"/>
     </row>
     <row r="557">
-      <c r="C557" s="17"/>
+      <c r="C557" s="19"/>
     </row>
     <row r="558">
-      <c r="C558" s="17"/>
+      <c r="C558" s="19"/>
     </row>
     <row r="559">
-      <c r="C559" s="17"/>
+      <c r="C559" s="19"/>
     </row>
     <row r="560">
-      <c r="C560" s="17"/>
+      <c r="C560" s="19"/>
     </row>
     <row r="561">
-      <c r="C561" s="17"/>
+      <c r="C561" s="19"/>
     </row>
     <row r="562">
-      <c r="C562" s="17"/>
+      <c r="C562" s="19"/>
     </row>
     <row r="563">
-      <c r="C563" s="17"/>
+      <c r="C563" s="19"/>
     </row>
     <row r="564">
-      <c r="C564" s="17"/>
+      <c r="C564" s="19"/>
     </row>
     <row r="565">
-      <c r="C565" s="17"/>
+      <c r="C565" s="19"/>
     </row>
     <row r="566">
-      <c r="C566" s="17"/>
+      <c r="C566" s="19"/>
     </row>
     <row r="567">
-      <c r="C567" s="17"/>
+      <c r="C567" s="19"/>
     </row>
     <row r="568">
-      <c r="C568" s="17"/>
+      <c r="C568" s="19"/>
     </row>
     <row r="569">
-      <c r="C569" s="17"/>
+      <c r="C569" s="19"/>
     </row>
     <row r="570">
-      <c r="C570" s="17"/>
+      <c r="C570" s="19"/>
     </row>
     <row r="571">
-      <c r="C571" s="17"/>
+      <c r="C571" s="19"/>
     </row>
     <row r="572">
-      <c r="C572" s="17"/>
+      <c r="C572" s="19"/>
     </row>
     <row r="573">
-      <c r="C573" s="17"/>
+      <c r="C573" s="19"/>
     </row>
     <row r="574">
-      <c r="C574" s="17"/>
+      <c r="C574" s="19"/>
     </row>
     <row r="575">
-      <c r="C575" s="17"/>
+      <c r="C575" s="19"/>
     </row>
     <row r="576">
-      <c r="C576" s="17"/>
+      <c r="C576" s="19"/>
     </row>
     <row r="577">
-      <c r="C577" s="17"/>
+      <c r="C577" s="19"/>
     </row>
     <row r="578">
-      <c r="C578" s="17"/>
+      <c r="C578" s="19"/>
     </row>
     <row r="579">
-      <c r="C579" s="17"/>
+      <c r="C579" s="19"/>
     </row>
     <row r="580">
-      <c r="C580" s="17"/>
+      <c r="C580" s="19"/>
     </row>
     <row r="581">
-      <c r="C581" s="17"/>
+      <c r="C581" s="19"/>
     </row>
     <row r="582">
-      <c r="C582" s="17"/>
+      <c r="C582" s="19"/>
     </row>
     <row r="583">
-      <c r="C583" s="17"/>
+      <c r="C583" s="19"/>
     </row>
     <row r="584">
-      <c r="C584" s="17"/>
+      <c r="C584" s="19"/>
     </row>
     <row r="585">
-      <c r="C585" s="17"/>
+      <c r="C585" s="19"/>
     </row>
     <row r="586">
-      <c r="C586" s="17"/>
+      <c r="C586" s="19"/>
     </row>
     <row r="587">
-      <c r="C587" s="17"/>
+      <c r="C587" s="19"/>
     </row>
     <row r="588">
-      <c r="C588" s="17"/>
+      <c r="C588" s="19"/>
     </row>
     <row r="589">
-      <c r="C589" s="17"/>
+      <c r="C589" s="19"/>
     </row>
     <row r="590">
-      <c r="C590" s="17"/>
+      <c r="C590" s="19"/>
     </row>
     <row r="591">
-      <c r="C591" s="17"/>
+      <c r="C591" s="19"/>
     </row>
     <row r="592">
-      <c r="C592" s="17"/>
+      <c r="C592" s="19"/>
     </row>
     <row r="593">
-      <c r="C593" s="17"/>
+      <c r="C593" s="19"/>
     </row>
     <row r="594">
-      <c r="C594" s="17"/>
+      <c r="C594" s="19"/>
     </row>
     <row r="595">
-      <c r="C595" s="17"/>
+      <c r="C595" s="19"/>
     </row>
     <row r="596">
-      <c r="C596" s="17"/>
+      <c r="C596" s="19"/>
     </row>
     <row r="597">
-      <c r="C597" s="17"/>
+      <c r="C597" s="19"/>
     </row>
     <row r="598">
-      <c r="C598" s="17"/>
+      <c r="C598" s="19"/>
     </row>
     <row r="599">
-      <c r="C599" s="17"/>
+      <c r="C599" s="19"/>
     </row>
     <row r="600">
-      <c r="C600" s="17"/>
+      <c r="C600" s="19"/>
     </row>
     <row r="601">
-      <c r="C601" s="17"/>
+      <c r="C601" s="19"/>
     </row>
     <row r="602">
-      <c r="C602" s="17"/>
+      <c r="C602" s="19"/>
     </row>
     <row r="603">
-      <c r="C603" s="17"/>
+      <c r="C603" s="19"/>
     </row>
     <row r="604">
-      <c r="C604" s="17"/>
+      <c r="C604" s="19"/>
     </row>
     <row r="605">
-      <c r="C605" s="17"/>
+      <c r="C605" s="19"/>
     </row>
     <row r="606">
-      <c r="C606" s="17"/>
+      <c r="C606" s="19"/>
     </row>
     <row r="607">
-      <c r="C607" s="17"/>
+      <c r="C607" s="19"/>
     </row>
     <row r="608">
-      <c r="C608" s="17"/>
+      <c r="C608" s="19"/>
     </row>
     <row r="609">
-      <c r="C609" s="17"/>
+      <c r="C609" s="19"/>
     </row>
     <row r="610">
-      <c r="C610" s="17"/>
+      <c r="C610" s="19"/>
     </row>
     <row r="611">
-      <c r="C611" s="17"/>
+      <c r="C611" s="19"/>
     </row>
     <row r="612">
-      <c r="C612" s="17"/>
+      <c r="C612" s="19"/>
     </row>
     <row r="613">
-      <c r="C613" s="17"/>
+      <c r="C613" s="19"/>
     </row>
     <row r="614">
-      <c r="C614" s="17"/>
+      <c r="C614" s="19"/>
     </row>
     <row r="615">
-      <c r="C615" s="17"/>
+      <c r="C615" s="19"/>
     </row>
     <row r="616">
-      <c r="C616" s="17"/>
+      <c r="C616" s="19"/>
     </row>
     <row r="617">
-      <c r="C617" s="17"/>
+      <c r="C617" s="19"/>
     </row>
     <row r="618">
-      <c r="C618" s="17"/>
+      <c r="C618" s="19"/>
     </row>
     <row r="619">
-      <c r="C619" s="17"/>
+      <c r="C619" s="19"/>
     </row>
     <row r="620">
-      <c r="C620" s="17"/>
+      <c r="C620" s="19"/>
     </row>
     <row r="621">
-      <c r="C621" s="17"/>
+      <c r="C621" s="19"/>
     </row>
     <row r="622">
-      <c r="C622" s="17"/>
+      <c r="C622" s="19"/>
     </row>
     <row r="623">
-      <c r="C623" s="17"/>
+      <c r="C623" s="19"/>
     </row>
     <row r="624">
-      <c r="C624" s="17"/>
+      <c r="C624" s="19"/>
     </row>
     <row r="625">
-      <c r="C625" s="17"/>
+      <c r="C625" s="19"/>
     </row>
     <row r="626">
-      <c r="C626" s="17"/>
+      <c r="C626" s="19"/>
     </row>
     <row r="627">
-      <c r="C627" s="17"/>
+      <c r="C627" s="19"/>
     </row>
     <row r="628">
-      <c r="C628" s="17"/>
+      <c r="C628" s="19"/>
     </row>
     <row r="629">
-      <c r="C629" s="17"/>
+      <c r="C629" s="19"/>
     </row>
     <row r="630">
-      <c r="C630" s="17"/>
+      <c r="C630" s="19"/>
     </row>
     <row r="631">
-      <c r="C631" s="17"/>
+      <c r="C631" s="19"/>
     </row>
     <row r="632">
-      <c r="C632" s="17"/>
+      <c r="C632" s="19"/>
     </row>
     <row r="633">
-      <c r="C633" s="17"/>
+      <c r="C633" s="19"/>
     </row>
     <row r="634">
-      <c r="C634" s="17"/>
+      <c r="C634" s="19"/>
     </row>
     <row r="635">
-      <c r="C635" s="17"/>
+      <c r="C635" s="19"/>
     </row>
     <row r="636">
-      <c r="C636" s="17"/>
+      <c r="C636" s="19"/>
     </row>
     <row r="637">
-      <c r="C637" s="17"/>
+      <c r="C637" s="19"/>
     </row>
     <row r="638">
-      <c r="C638" s="17"/>
+      <c r="C638" s="19"/>
     </row>
     <row r="639">
-      <c r="C639" s="17"/>
+      <c r="C639" s="19"/>
     </row>
     <row r="640">
-      <c r="C640" s="17"/>
+      <c r="C640" s="19"/>
     </row>
     <row r="641">
-      <c r="C641" s="17"/>
+      <c r="C641" s="19"/>
     </row>
     <row r="642">
-      <c r="C642" s="17"/>
+      <c r="C642" s="19"/>
     </row>
     <row r="643">
-      <c r="C643" s="17"/>
+      <c r="C643" s="19"/>
     </row>
     <row r="644">
-      <c r="C644" s="17"/>
+      <c r="C644" s="19"/>
     </row>
     <row r="645">
-      <c r="C645" s="17"/>
+      <c r="C645" s="19"/>
     </row>
     <row r="646">
-      <c r="C646" s="17"/>
+      <c r="C646" s="19"/>
     </row>
     <row r="647">
-      <c r="C647" s="17"/>
+      <c r="C647" s="19"/>
     </row>
     <row r="648">
-      <c r="C648" s="17"/>
+      <c r="C648" s="19"/>
     </row>
     <row r="649">
-      <c r="C649" s="17"/>
+      <c r="C649" s="19"/>
     </row>
     <row r="650">
-      <c r="C650" s="17"/>
+      <c r="C650" s="19"/>
     </row>
     <row r="651">
-      <c r="C651" s="17"/>
+      <c r="C651" s="19"/>
     </row>
     <row r="652">
-      <c r="C652" s="17"/>
+      <c r="C652" s="19"/>
     </row>
     <row r="653">
-      <c r="C653" s="17"/>
+      <c r="C653" s="19"/>
     </row>
     <row r="654">
-      <c r="C654" s="17"/>
+      <c r="C654" s="19"/>
     </row>
     <row r="655">
-      <c r="C655" s="17"/>
+      <c r="C655" s="19"/>
     </row>
     <row r="656">
-      <c r="C656" s="17"/>
+      <c r="C656" s="19"/>
     </row>
     <row r="657">
-      <c r="C657" s="17"/>
+      <c r="C657" s="19"/>
     </row>
     <row r="658">
-      <c r="C658" s="17"/>
+      <c r="C658" s="19"/>
     </row>
     <row r="659">
-      <c r="C659" s="17"/>
+      <c r="C659" s="19"/>
     </row>
     <row r="660">
-      <c r="C660" s="17"/>
+      <c r="C660" s="19"/>
     </row>
     <row r="661">
-      <c r="C661" s="17"/>
+      <c r="C661" s="19"/>
     </row>
     <row r="662">
-      <c r="C662" s="17"/>
+      <c r="C662" s="19"/>
     </row>
     <row r="663">
-      <c r="C663" s="17"/>
+      <c r="C663" s="19"/>
     </row>
     <row r="664">
-      <c r="C664" s="17"/>
+      <c r="C664" s="19"/>
     </row>
     <row r="665">
-      <c r="C665" s="17"/>
+      <c r="C665" s="19"/>
     </row>
     <row r="666">
-      <c r="C666" s="17"/>
+      <c r="C666" s="19"/>
     </row>
     <row r="667">
-      <c r="C667" s="17"/>
+      <c r="C667" s="19"/>
     </row>
     <row r="668">
-      <c r="C668" s="17"/>
+      <c r="C668" s="19"/>
     </row>
     <row r="669">
-      <c r="C669" s="17"/>
+      <c r="C669" s="19"/>
     </row>
     <row r="670">
-      <c r="C670" s="17"/>
+      <c r="C670" s="19"/>
     </row>
     <row r="671">
-      <c r="C671" s="17"/>
+      <c r="C671" s="19"/>
     </row>
     <row r="672">
-      <c r="C672" s="17"/>
+      <c r="C672" s="19"/>
     </row>
     <row r="673">
-      <c r="C673" s="17"/>
+      <c r="C673" s="19"/>
     </row>
     <row r="674">
-      <c r="C674" s="17"/>
+      <c r="C674" s="19"/>
     </row>
     <row r="675">
-      <c r="C675" s="17"/>
+      <c r="C675" s="19"/>
     </row>
     <row r="676">
-      <c r="C676" s="17"/>
+      <c r="C676" s="19"/>
     </row>
     <row r="677">
-      <c r="C677" s="17"/>
+      <c r="C677" s="19"/>
     </row>
     <row r="678">
-      <c r="C678" s="17"/>
+      <c r="C678" s="19"/>
     </row>
     <row r="679">
-      <c r="C679" s="17"/>
+      <c r="C679" s="19"/>
     </row>
     <row r="680">
-      <c r="C680" s="17"/>
+      <c r="C680" s="19"/>
     </row>
     <row r="681">
-      <c r="C681" s="17"/>
+      <c r="C681" s="19"/>
     </row>
     <row r="682">
-      <c r="C682" s="17"/>
+      <c r="C682" s="19"/>
     </row>
     <row r="683">
-      <c r="C683" s="17"/>
+      <c r="C683" s="19"/>
     </row>
     <row r="684">
-      <c r="C684" s="17"/>
+      <c r="C684" s="19"/>
     </row>
     <row r="685">
-      <c r="C685" s="17"/>
+      <c r="C685" s="19"/>
     </row>
     <row r="686">
-      <c r="C686" s="17"/>
+      <c r="C686" s="19"/>
     </row>
     <row r="687">
-      <c r="C687" s="17"/>
+      <c r="C687" s="19"/>
     </row>
     <row r="688">
-      <c r="C688" s="17"/>
+      <c r="C688" s="19"/>
     </row>
     <row r="689">
-      <c r="C689" s="17"/>
+      <c r="C689" s="19"/>
     </row>
     <row r="690">
-      <c r="C690" s="17"/>
+      <c r="C690" s="19"/>
     </row>
     <row r="691">
-      <c r="C691" s="17"/>
+      <c r="C691" s="19"/>
     </row>
     <row r="692">
-      <c r="C692" s="17"/>
+      <c r="C692" s="19"/>
     </row>
     <row r="693">
-      <c r="C693" s="17"/>
+      <c r="C693" s="19"/>
     </row>
     <row r="694">
-      <c r="C694" s="17"/>
+      <c r="C694" s="19"/>
     </row>
     <row r="695">
-      <c r="C695" s="17"/>
+      <c r="C695" s="19"/>
     </row>
     <row r="696">
-      <c r="C696" s="17"/>
+      <c r="C696" s="19"/>
     </row>
     <row r="697">
-      <c r="C697" s="17"/>
+      <c r="C697" s="19"/>
     </row>
     <row r="698">
-      <c r="C698" s="17"/>
+      <c r="C698" s="19"/>
     </row>
     <row r="699">
-      <c r="C699" s="17"/>
+      <c r="C699" s="19"/>
     </row>
     <row r="700">
-      <c r="C700" s="17"/>
+      <c r="C700" s="19"/>
     </row>
     <row r="701">
-      <c r="C701" s="17"/>
+      <c r="C701" s="19"/>
     </row>
     <row r="702">
-      <c r="C702" s="17"/>
+      <c r="C702" s="19"/>
     </row>
     <row r="703">
-      <c r="C703" s="17"/>
+      <c r="C703" s="19"/>
     </row>
     <row r="704">
-      <c r="C704" s="17"/>
+      <c r="C704" s="19"/>
     </row>
     <row r="705">
-      <c r="C705" s="17"/>
+      <c r="C705" s="19"/>
     </row>
     <row r="706">
-      <c r="C706" s="17"/>
+      <c r="C706" s="19"/>
     </row>
     <row r="707">
-      <c r="C707" s="17"/>
+      <c r="C707" s="19"/>
     </row>
     <row r="708">
-      <c r="C708" s="17"/>
+      <c r="C708" s="19"/>
     </row>
     <row r="709">
-      <c r="C709" s="17"/>
+      <c r="C709" s="19"/>
     </row>
     <row r="710">
-      <c r="C710" s="17"/>
+      <c r="C710" s="19"/>
     </row>
     <row r="711">
-      <c r="C711" s="17"/>
+      <c r="C711" s="19"/>
     </row>
     <row r="712">
-      <c r="C712" s="17"/>
+      <c r="C712" s="19"/>
     </row>
     <row r="713">
-      <c r="C713" s="17"/>
+      <c r="C713" s="19"/>
     </row>
     <row r="714">
-      <c r="C714" s="17"/>
+      <c r="C714" s="19"/>
     </row>
     <row r="715">
-      <c r="C715" s="17"/>
+      <c r="C715" s="19"/>
     </row>
     <row r="716">
-      <c r="C716" s="17"/>
+      <c r="C716" s="19"/>
     </row>
     <row r="717">
-      <c r="C717" s="17"/>
+      <c r="C717" s="19"/>
     </row>
     <row r="718">
-      <c r="C718" s="17"/>
+      <c r="C718" s="19"/>
     </row>
     <row r="719">
-      <c r="C719" s="17"/>
+      <c r="C719" s="19"/>
     </row>
     <row r="720">
-      <c r="C720" s="17"/>
+      <c r="C720" s="19"/>
     </row>
     <row r="721">
-      <c r="C721" s="17"/>
+      <c r="C721" s="19"/>
     </row>
     <row r="722">
-      <c r="C722" s="17"/>
+      <c r="C722" s="19"/>
     </row>
     <row r="723">
-      <c r="C723" s="17"/>
+      <c r="C723" s="19"/>
     </row>
     <row r="724">
-      <c r="C724" s="17"/>
+      <c r="C724" s="19"/>
     </row>
     <row r="725">
-      <c r="C725" s="17"/>
+      <c r="C725" s="19"/>
     </row>
     <row r="726">
-      <c r="C726" s="17"/>
+      <c r="C726" s="19"/>
     </row>
     <row r="727">
-      <c r="C727" s="17"/>
+      <c r="C727" s="19"/>
     </row>
     <row r="728">
-      <c r="C728" s="17"/>
+      <c r="C728" s="19"/>
     </row>
     <row r="729">
-      <c r="C729" s="17"/>
+      <c r="C729" s="19"/>
     </row>
     <row r="730">
-      <c r="C730" s="17"/>
+      <c r="C730" s="19"/>
     </row>
     <row r="731">
-      <c r="C731" s="17"/>
+      <c r="C731" s="19"/>
     </row>
     <row r="732">
-      <c r="C732" s="17"/>
+      <c r="C732" s="19"/>
     </row>
     <row r="733">
-      <c r="C733" s="17"/>
+      <c r="C733" s="19"/>
     </row>
     <row r="734">
-      <c r="C734" s="17"/>
+      <c r="C734" s="19"/>
     </row>
     <row r="735">
-      <c r="C735" s="17"/>
+      <c r="C735" s="19"/>
     </row>
     <row r="736">
-      <c r="C736" s="17"/>
+      <c r="C736" s="19"/>
     </row>
     <row r="737">
-      <c r="C737" s="17"/>
+      <c r="C737" s="19"/>
     </row>
     <row r="738">
-      <c r="C738" s="17"/>
+      <c r="C738" s="19"/>
     </row>
     <row r="739">
-      <c r="C739" s="17"/>
+      <c r="C739" s="19"/>
     </row>
     <row r="740">
-      <c r="C740" s="17"/>
+      <c r="C740" s="19"/>
     </row>
     <row r="741">
-      <c r="C741" s="17"/>
+      <c r="C741" s="19"/>
     </row>
     <row r="742">
-      <c r="C742" s="17"/>
+      <c r="C742" s="19"/>
     </row>
     <row r="743">
-      <c r="C743" s="17"/>
+      <c r="C743" s="19"/>
     </row>
     <row r="744">
-      <c r="C744" s="17"/>
+      <c r="C744" s="19"/>
     </row>
     <row r="745">
-      <c r="C745" s="17"/>
+      <c r="C745" s="19"/>
     </row>
     <row r="746">
-      <c r="C746" s="17"/>
+      <c r="C746" s="19"/>
     </row>
     <row r="747">
-      <c r="C747" s="17"/>
+      <c r="C747" s="19"/>
     </row>
     <row r="748">
-      <c r="C748" s="17"/>
+      <c r="C748" s="19"/>
     </row>
     <row r="749">
-      <c r="C749" s="17"/>
+      <c r="C749" s="19"/>
     </row>
     <row r="750">
-      <c r="C750" s="17"/>
+      <c r="C750" s="19"/>
     </row>
     <row r="751">
-      <c r="C751" s="17"/>
+      <c r="C751" s="19"/>
     </row>
     <row r="752">
-      <c r="C752" s="17"/>
+      <c r="C752" s="19"/>
     </row>
     <row r="753">
-      <c r="C753" s="17"/>
+      <c r="C753" s="19"/>
     </row>
     <row r="754">
-      <c r="C754" s="17"/>
+      <c r="C754" s="19"/>
     </row>
     <row r="755">
-      <c r="C755" s="17"/>
+      <c r="C755" s="19"/>
     </row>
     <row r="756">
-      <c r="C756" s="17"/>
+      <c r="C756" s="19"/>
     </row>
     <row r="757">
-      <c r="C757" s="17"/>
+      <c r="C757" s="19"/>
     </row>
     <row r="758">
-      <c r="C758" s="17"/>
+      <c r="C758" s="19"/>
     </row>
     <row r="759">
-      <c r="C759" s="17"/>
+      <c r="C759" s="19"/>
     </row>
     <row r="760">
-      <c r="C760" s="17"/>
+      <c r="C760" s="19"/>
     </row>
     <row r="761">
-      <c r="C761" s="17"/>
+      <c r="C761" s="19"/>
     </row>
     <row r="762">
-      <c r="C762" s="17"/>
+      <c r="C762" s="19"/>
     </row>
     <row r="763">
-      <c r="C763" s="17"/>
+      <c r="C763" s="19"/>
     </row>
     <row r="764">
-      <c r="C764" s="17"/>
+      <c r="C764" s="19"/>
     </row>
     <row r="765">
-      <c r="C765" s="17"/>
+      <c r="C765" s="19"/>
     </row>
     <row r="766">
-      <c r="C766" s="17"/>
+      <c r="C766" s="19"/>
     </row>
     <row r="767">
-      <c r="C767" s="17"/>
+      <c r="C767" s="19"/>
     </row>
     <row r="768">
-      <c r="C768" s="17"/>
+      <c r="C768" s="19"/>
     </row>
     <row r="769">
-      <c r="C769" s="17"/>
+      <c r="C769" s="19"/>
     </row>
     <row r="770">
-      <c r="C770" s="17"/>
+      <c r="C770" s="19"/>
     </row>
     <row r="771">
-      <c r="C771" s="17"/>
+      <c r="C771" s="19"/>
     </row>
     <row r="772">
-      <c r="C772" s="17"/>
+      <c r="C772" s="19"/>
     </row>
     <row r="773">
-      <c r="C773" s="17"/>
+      <c r="C773" s="19"/>
     </row>
     <row r="774">
-      <c r="C774" s="17"/>
+      <c r="C774" s="19"/>
     </row>
     <row r="775">
-      <c r="C775" s="17"/>
+      <c r="C775" s="19"/>
     </row>
     <row r="776">
-      <c r="C776" s="17"/>
+      <c r="C776" s="19"/>
     </row>
     <row r="777">
-      <c r="C777" s="17"/>
+      <c r="C777" s="19"/>
     </row>
     <row r="778">
-      <c r="C778" s="17"/>
+      <c r="C778" s="19"/>
     </row>
     <row r="779">
-      <c r="C779" s="17"/>
+      <c r="C779" s="19"/>
     </row>
     <row r="780">
-      <c r="C780" s="17"/>
+      <c r="C780" s="19"/>
     </row>
     <row r="781">
-      <c r="C781" s="17"/>
+      <c r="C781" s="19"/>
     </row>
     <row r="782">
-      <c r="C782" s="17"/>
+      <c r="C782" s="19"/>
     </row>
     <row r="783">
-      <c r="C783" s="17"/>
+      <c r="C783" s="19"/>
     </row>
     <row r="784">
-      <c r="C784" s="17"/>
+      <c r="C784" s="19"/>
     </row>
     <row r="785">
-      <c r="C785" s="17"/>
+      <c r="C785" s="19"/>
     </row>
     <row r="786">
-      <c r="C786" s="17"/>
+      <c r="C786" s="19"/>
     </row>
     <row r="787">
-      <c r="C787" s="17"/>
+      <c r="C787" s="19"/>
     </row>
     <row r="788">
-      <c r="C788" s="17"/>
+      <c r="C788" s="19"/>
     </row>
     <row r="789">
-      <c r="C789" s="17"/>
+      <c r="C789" s="19"/>
     </row>
     <row r="790">
-      <c r="C790" s="17"/>
+      <c r="C790" s="19"/>
     </row>
     <row r="791">
-      <c r="C791" s="17"/>
+      <c r="C791" s="19"/>
     </row>
     <row r="792">
-      <c r="C792" s="17"/>
+      <c r="C792" s="19"/>
     </row>
     <row r="793">
-      <c r="C793" s="17"/>
+      <c r="C793" s="19"/>
     </row>
     <row r="794">
-      <c r="C794" s="17"/>
+      <c r="C794" s="19"/>
     </row>
     <row r="795">
-      <c r="C795" s="17"/>
+      <c r="C795" s="19"/>
     </row>
     <row r="796">
-      <c r="C796" s="17"/>
+      <c r="C796" s="19"/>
     </row>
     <row r="797">
-      <c r="C797" s="17"/>
+      <c r="C797" s="19"/>
     </row>
     <row r="798">
-      <c r="C798" s="17"/>
+      <c r="C798" s="19"/>
     </row>
     <row r="799">
-      <c r="C799" s="17"/>
+      <c r="C799" s="19"/>
     </row>
     <row r="800">
-      <c r="C800" s="17"/>
+      <c r="C800" s="19"/>
     </row>
     <row r="801">
-      <c r="C801" s="17"/>
+      <c r="C801" s="19"/>
     </row>
     <row r="802">
-      <c r="C802" s="17"/>
+      <c r="C802" s="19"/>
     </row>
     <row r="803">
-      <c r="C803" s="17"/>
+      <c r="C803" s="19"/>
     </row>
     <row r="804">
-      <c r="C804" s="17"/>
+      <c r="C804" s="19"/>
     </row>
     <row r="805">
-      <c r="C805" s="17"/>
+      <c r="C805" s="19"/>
     </row>
     <row r="806">
-      <c r="C806" s="17"/>
+      <c r="C806" s="19"/>
     </row>
     <row r="807">
-      <c r="C807" s="17"/>
+      <c r="C807" s="19"/>
     </row>
     <row r="808">
-      <c r="C808" s="17"/>
+      <c r="C808" s="19"/>
     </row>
     <row r="809">
-      <c r="C809" s="17"/>
+      <c r="C809" s="19"/>
     </row>
     <row r="810">
-      <c r="C810" s="17"/>
+      <c r="C810" s="19"/>
     </row>
     <row r="811">
-      <c r="C811" s="17"/>
+      <c r="C811" s="19"/>
     </row>
     <row r="812">
-      <c r="C812" s="17"/>
+      <c r="C812" s="19"/>
     </row>
     <row r="813">
-      <c r="C813" s="17"/>
+      <c r="C813" s="19"/>
     </row>
     <row r="814">
-      <c r="C814" s="17"/>
+      <c r="C814" s="19"/>
     </row>
     <row r="815">
-      <c r="C815" s="17"/>
+      <c r="C815" s="19"/>
     </row>
     <row r="816">
-      <c r="C816" s="17"/>
+      <c r="C816" s="19"/>
     </row>
     <row r="817">
-      <c r="C817" s="17"/>
+      <c r="C817" s="19"/>
     </row>
     <row r="818">
-      <c r="C818" s="17"/>
+      <c r="C818" s="19"/>
     </row>
     <row r="819">
-      <c r="C819" s="17"/>
+      <c r="C819" s="19"/>
     </row>
     <row r="820">
-      <c r="C820" s="17"/>
+      <c r="C820" s="19"/>
     </row>
     <row r="821">
-      <c r="C821" s="17"/>
+      <c r="C821" s="19"/>
     </row>
     <row r="822">
-      <c r="C822" s="17"/>
+      <c r="C822" s="19"/>
     </row>
     <row r="823">
-      <c r="C823" s="17"/>
+      <c r="C823" s="19"/>
     </row>
     <row r="824">
-      <c r="C824" s="17"/>
+      <c r="C824" s="19"/>
     </row>
     <row r="825">
-      <c r="C825" s="17"/>
+      <c r="C825" s="19"/>
     </row>
     <row r="826">
-      <c r="C826" s="17"/>
+      <c r="C826" s="19"/>
     </row>
     <row r="827">
-      <c r="C827" s="17"/>
+      <c r="C827" s="19"/>
     </row>
     <row r="828">
-      <c r="C828" s="17"/>
+      <c r="C828" s="19"/>
     </row>
     <row r="829">
-      <c r="C829" s="17"/>
+      <c r="C829" s="19"/>
     </row>
     <row r="830">
-      <c r="C830" s="17"/>
+      <c r="C830" s="19"/>
     </row>
     <row r="831">
-      <c r="C831" s="17"/>
+      <c r="C831" s="19"/>
     </row>
     <row r="832">
-      <c r="C832" s="17"/>
+      <c r="C832" s="19"/>
     </row>
     <row r="833">
-      <c r="C833" s="17"/>
+      <c r="C833" s="19"/>
     </row>
     <row r="834">
-      <c r="C834" s="17"/>
+      <c r="C834" s="19"/>
     </row>
     <row r="835">
-      <c r="C835" s="17"/>
+      <c r="C835" s="19"/>
     </row>
     <row r="836">
-      <c r="C836" s="17"/>
+      <c r="C836" s="19"/>
     </row>
     <row r="837">
-      <c r="C837" s="17"/>
+      <c r="C837" s="19"/>
     </row>
     <row r="838">
-      <c r="C838" s="17"/>
+      <c r="C838" s="19"/>
     </row>
     <row r="839">
-      <c r="C839" s="17"/>
+      <c r="C839" s="19"/>
     </row>
     <row r="840">
-      <c r="C840" s="17"/>
+      <c r="C840" s="19"/>
     </row>
     <row r="841">
-      <c r="C841" s="17"/>
+      <c r="C841" s="19"/>
     </row>
     <row r="842">
-      <c r="C842" s="17"/>
+      <c r="C842" s="19"/>
     </row>
     <row r="843">
-      <c r="C843" s="17"/>
+      <c r="C843" s="19"/>
     </row>
     <row r="844">
-      <c r="C844" s="17"/>
+      <c r="C844" s="19"/>
     </row>
     <row r="845">
-      <c r="C845" s="17"/>
+      <c r="C845" s="19"/>
     </row>
     <row r="846">
-      <c r="C846" s="17"/>
+      <c r="C846" s="19"/>
     </row>
     <row r="847">
-      <c r="C847" s="17"/>
+      <c r="C847" s="19"/>
     </row>
     <row r="848">
-      <c r="C848" s="17"/>
+      <c r="C848" s="19"/>
     </row>
     <row r="849">
-      <c r="C849" s="17"/>
+      <c r="C849" s="19"/>
     </row>
     <row r="850">
-      <c r="C850" s="17"/>
+      <c r="C850" s="19"/>
     </row>
     <row r="851">
-      <c r="C851" s="17"/>
+      <c r="C851" s="19"/>
     </row>
     <row r="852">
-      <c r="C852" s="17"/>
+      <c r="C852" s="19"/>
     </row>
     <row r="853">
-      <c r="C853" s="17"/>
+      <c r="C853" s="19"/>
     </row>
     <row r="854">
-      <c r="C854" s="17"/>
+      <c r="C854" s="19"/>
     </row>
     <row r="855">
-      <c r="C855" s="17"/>
+      <c r="C855" s="19"/>
     </row>
     <row r="856">
-      <c r="C856" s="17"/>
+      <c r="C856" s="19"/>
     </row>
     <row r="857">
-      <c r="C857" s="17"/>
+      <c r="C857" s="19"/>
     </row>
     <row r="858">
-      <c r="C858" s="17"/>
+      <c r="C858" s="19"/>
     </row>
     <row r="859">
-      <c r="C859" s="17"/>
+      <c r="C859" s="19"/>
     </row>
     <row r="860">
-      <c r="C860" s="17"/>
+      <c r="C860" s="19"/>
     </row>
     <row r="861">
-      <c r="C861" s="17"/>
+      <c r="C861" s="19"/>
     </row>
     <row r="862">
-      <c r="C862" s="17"/>
+      <c r="C862" s="19"/>
     </row>
     <row r="863">
-      <c r="C863" s="17"/>
+      <c r="C863" s="19"/>
     </row>
     <row r="864">
-      <c r="C864" s="17"/>
+      <c r="C864" s="19"/>
     </row>
     <row r="865">
-      <c r="C865" s="17"/>
+      <c r="C865" s="19"/>
     </row>
     <row r="866">
-      <c r="C866" s="17"/>
+      <c r="C866" s="19"/>
     </row>
     <row r="867">
-      <c r="C867" s="17"/>
+      <c r="C867" s="19"/>
     </row>
     <row r="868">
-      <c r="C868" s="17"/>
+      <c r="C868" s="19"/>
     </row>
     <row r="869">
-      <c r="C869" s="17"/>
+      <c r="C869" s="19"/>
     </row>
     <row r="870">
-      <c r="C870" s="17"/>
+      <c r="C870" s="19"/>
     </row>
     <row r="871">
-      <c r="C871" s="17"/>
+      <c r="C871" s="19"/>
     </row>
     <row r="872">
-      <c r="C872" s="17"/>
+      <c r="C872" s="19"/>
     </row>
     <row r="873">
-      <c r="C873" s="17"/>
+      <c r="C873" s="19"/>
     </row>
     <row r="874">
-      <c r="C874" s="17"/>
+      <c r="C874" s="19"/>
     </row>
     <row r="875">
-      <c r="C875" s="17"/>
+      <c r="C875" s="19"/>
     </row>
     <row r="876">
-      <c r="C876" s="17"/>
+      <c r="C876" s="19"/>
     </row>
     <row r="877">
-      <c r="C877" s="17"/>
+      <c r="C877" s="19"/>
     </row>
     <row r="878">
-      <c r="C878" s="17"/>
+      <c r="C878" s="19"/>
     </row>
     <row r="879">
-      <c r="C879" s="17"/>
+      <c r="C879" s="19"/>
     </row>
     <row r="880">
-      <c r="C880" s="17"/>
+      <c r="C880" s="19"/>
     </row>
     <row r="881">
-      <c r="C881" s="17"/>
+      <c r="C881" s="19"/>
     </row>
     <row r="882">
-      <c r="C882" s="17"/>
+      <c r="C882" s="19"/>
     </row>
     <row r="883">
-      <c r="C883" s="17"/>
+      <c r="C883" s="19"/>
     </row>
     <row r="884">
-      <c r="C884" s="17"/>
+      <c r="C884" s="19"/>
     </row>
     <row r="885">
-      <c r="C885" s="17"/>
+      <c r="C885" s="19"/>
     </row>
     <row r="886">
-      <c r="C886" s="17"/>
+      <c r="C886" s="19"/>
     </row>
     <row r="887">
-      <c r="C887" s="17"/>
+      <c r="C887" s="19"/>
     </row>
     <row r="888">
-      <c r="C888" s="17"/>
+      <c r="C888" s="19"/>
     </row>
     <row r="889">
-      <c r="C889" s="17"/>
+      <c r="C889" s="19"/>
     </row>
     <row r="890">
-      <c r="C890" s="17"/>
+      <c r="C890" s="19"/>
     </row>
     <row r="891">
-      <c r="C891" s="17"/>
+      <c r="C891" s="19"/>
     </row>
     <row r="892">
-      <c r="C892" s="17"/>
+      <c r="C892" s="19"/>
     </row>
     <row r="893">
-      <c r="C893" s="17"/>
+      <c r="C893" s="19"/>
     </row>
     <row r="894">
-      <c r="C894" s="17"/>
+      <c r="C894" s="19"/>
     </row>
     <row r="895">
-      <c r="C895" s="17"/>
+      <c r="C895" s="19"/>
     </row>
     <row r="896">
-      <c r="C896" s="17"/>
+      <c r="C896" s="19"/>
     </row>
     <row r="897">
-      <c r="C897" s="17"/>
+      <c r="C897" s="19"/>
     </row>
     <row r="898">
-      <c r="C898" s="17"/>
+      <c r="C898" s="19"/>
     </row>
     <row r="899">
-      <c r="C899" s="17"/>
+      <c r="C899" s="19"/>
     </row>
     <row r="900">
-      <c r="C900" s="17"/>
+      <c r="C900" s="19"/>
     </row>
     <row r="901">
-      <c r="C901" s="17"/>
+      <c r="C901" s="19"/>
     </row>
     <row r="902">
-      <c r="C902" s="17"/>
+      <c r="C902" s="19"/>
     </row>
     <row r="903">
-      <c r="C903" s="17"/>
+      <c r="C903" s="19"/>
     </row>
     <row r="904">
-      <c r="C904" s="17"/>
+      <c r="C904" s="19"/>
     </row>
     <row r="905">
-      <c r="C905" s="17"/>
+      <c r="C905" s="19"/>
     </row>
     <row r="906">
-      <c r="C906" s="17"/>
+      <c r="C906" s="19"/>
     </row>
     <row r="907">
-      <c r="C907" s="17"/>
+      <c r="C907" s="19"/>
     </row>
     <row r="908">
-      <c r="C908" s="17"/>
+      <c r="C908" s="19"/>
     </row>
     <row r="909">
-      <c r="C909" s="17"/>
+      <c r="C909" s="19"/>
     </row>
     <row r="910">
-      <c r="C910" s="17"/>
+      <c r="C910" s="19"/>
     </row>
     <row r="911">
-      <c r="C911" s="17"/>
+      <c r="C911" s="19"/>
     </row>
     <row r="912">
-      <c r="C912" s="17"/>
+      <c r="C912" s="19"/>
     </row>
     <row r="913">
-      <c r="C913" s="17"/>
+      <c r="C913" s="19"/>
     </row>
     <row r="914">
-      <c r="C914" s="17"/>
+      <c r="C914" s="19"/>
     </row>
     <row r="915">
-      <c r="C915" s="17"/>
+      <c r="C915" s="19"/>
     </row>
     <row r="916">
-      <c r="C916" s="17"/>
+      <c r="C916" s="19"/>
     </row>
     <row r="917">
-      <c r="C917" s="17"/>
+      <c r="C917" s="19"/>
     </row>
     <row r="918">
-      <c r="C918" s="17"/>
+      <c r="C918" s="19"/>
     </row>
     <row r="919">
-      <c r="C919" s="17"/>
+      <c r="C919" s="19"/>
     </row>
     <row r="920">
-      <c r="C920" s="17"/>
+      <c r="C920" s="19"/>
     </row>
     <row r="921">
-      <c r="C921" s="17"/>
+      <c r="C921" s="19"/>
     </row>
     <row r="922">
-      <c r="C922" s="17"/>
+      <c r="C922" s="19"/>
     </row>
     <row r="923">
-      <c r="C923" s="17"/>
+      <c r="C923" s="19"/>
     </row>
     <row r="924">
-      <c r="C924" s="17"/>
+      <c r="C924" s="19"/>
     </row>
     <row r="925">
-      <c r="C925" s="17"/>
+      <c r="C925" s="19"/>
     </row>
     <row r="926">
-      <c r="C926" s="17"/>
+      <c r="C926" s="19"/>
     </row>
     <row r="927">
-      <c r="C927" s="17"/>
+      <c r="C927" s="19"/>
     </row>
     <row r="928">
-      <c r="C928" s="17"/>
+      <c r="C928" s="19"/>
     </row>
     <row r="929">
-      <c r="C929" s="17"/>
+      <c r="C929" s="19"/>
     </row>
     <row r="930">
-      <c r="C930" s="17"/>
+      <c r="C930" s="19"/>
     </row>
     <row r="931">
-      <c r="C931" s="17"/>
+      <c r="C931" s="19"/>
     </row>
     <row r="932">
-      <c r="C932" s="17"/>
+      <c r="C932" s="19"/>
     </row>
     <row r="933">
-      <c r="C933" s="17"/>
+      <c r="C933" s="19"/>
     </row>
     <row r="934">
-      <c r="C934" s="17"/>
+      <c r="C934" s="19"/>
     </row>
     <row r="935">
-      <c r="C935" s="17"/>
+      <c r="C935" s="19"/>
     </row>
     <row r="936">
-      <c r="C936" s="17"/>
+      <c r="C936" s="19"/>
     </row>
     <row r="937">
-      <c r="C937" s="17"/>
+      <c r="C937" s="19"/>
     </row>
     <row r="938">
-      <c r="C938" s="17"/>
+      <c r="C938" s="19"/>
     </row>
     <row r="939">
-      <c r="C939" s="17"/>
+      <c r="C939" s="19"/>
     </row>
     <row r="940">
-      <c r="C940" s="17"/>
+      <c r="C940" s="19"/>
     </row>
     <row r="941">
-      <c r="C941" s="17"/>
+      <c r="C941" s="19"/>
     </row>
     <row r="942">
-      <c r="C942" s="17"/>
+      <c r="C942" s="19"/>
     </row>
     <row r="943">
-      <c r="C943" s="17"/>
+      <c r="C943" s="19"/>
     </row>
     <row r="944">
-      <c r="C944" s="17"/>
+      <c r="C944" s="19"/>
     </row>
     <row r="945">
-      <c r="C945" s="17"/>
+      <c r="C945" s="19"/>
     </row>
     <row r="946">
-      <c r="C946" s="17"/>
+      <c r="C946" s="19"/>
     </row>
     <row r="947">
-      <c r="C947" s="17"/>
+      <c r="C947" s="19"/>
     </row>
     <row r="948">
-      <c r="C948" s="17"/>
+      <c r="C948" s="19"/>
     </row>
     <row r="949">
-      <c r="C949" s="17"/>
+      <c r="C949" s="19"/>
     </row>
     <row r="950">
-      <c r="C950" s="17"/>
+      <c r="C950" s="19"/>
     </row>
     <row r="951">
-      <c r="C951" s="17"/>
+      <c r="C951" s="19"/>
     </row>
     <row r="952">
-      <c r="C952" s="17"/>
+      <c r="C952" s="19"/>
     </row>
     <row r="953">
-      <c r="C953" s="17"/>
+      <c r="C953" s="19"/>
     </row>
     <row r="954">
-      <c r="C954" s="17"/>
+      <c r="C954" s="19"/>
     </row>
     <row r="955">
-      <c r="C955" s="17"/>
+      <c r="C955" s="19"/>
     </row>
     <row r="956">
-      <c r="C956" s="17"/>
+      <c r="C956" s="19"/>
     </row>
     <row r="957">
-      <c r="C957" s="17"/>
+      <c r="C957" s="19"/>
     </row>
     <row r="958">
-      <c r="C958" s="17"/>
+      <c r="C958" s="19"/>
     </row>
     <row r="959">
-      <c r="C959" s="17"/>
+      <c r="C959" s="19"/>
     </row>
     <row r="960">
-      <c r="C960" s="17"/>
+      <c r="C960" s="19"/>
     </row>
     <row r="961">
-      <c r="C961" s="17"/>
+      <c r="C961" s="19"/>
     </row>
     <row r="962">
-      <c r="C962" s="17"/>
+      <c r="C962" s="19"/>
     </row>
     <row r="963">
-      <c r="C963" s="17"/>
+      <c r="C963" s="19"/>
     </row>
     <row r="964">
-      <c r="C964" s="17"/>
+      <c r="C964" s="19"/>
     </row>
     <row r="965">
-      <c r="C965" s="17"/>
+      <c r="C965" s="19"/>
     </row>
     <row r="966">
-      <c r="C966" s="17"/>
+      <c r="C966" s="19"/>
     </row>
     <row r="967">
-      <c r="C967" s="17"/>
+      <c r="C967" s="19"/>
     </row>
     <row r="968">
-      <c r="C968" s="17"/>
+      <c r="C968" s="19"/>
     </row>
     <row r="969">
-      <c r="C969" s="17"/>
+      <c r="C969" s="19"/>
     </row>
     <row r="970">
-      <c r="C970" s="17"/>
+      <c r="C970" s="19"/>
     </row>
     <row r="971">
-      <c r="C971" s="17"/>
+      <c r="C971" s="19"/>
     </row>
     <row r="972">
-      <c r="C972" s="17"/>
+      <c r="C972" s="19"/>
     </row>
     <row r="973">
-      <c r="C973" s="17"/>
+      <c r="C973" s="19"/>
     </row>
     <row r="974">
-      <c r="C974" s="17"/>
+      <c r="C974" s="19"/>
     </row>
     <row r="975">
-      <c r="C975" s="17"/>
+      <c r="C975" s="19"/>
     </row>
     <row r="976">
-      <c r="C976" s="17"/>
+      <c r="C976" s="19"/>
     </row>
     <row r="977">
-      <c r="C977" s="17"/>
+      <c r="C977" s="19"/>
     </row>
     <row r="978">
-      <c r="C978" s="17"/>
+      <c r="C978" s="19"/>
     </row>
     <row r="979">
-      <c r="C979" s="17"/>
+      <c r="C979" s="19"/>
     </row>
     <row r="980">
-      <c r="C980" s="17"/>
+      <c r="C980" s="19"/>
     </row>
     <row r="981">
-      <c r="C981" s="17"/>
+      <c r="C981" s="19"/>
     </row>
     <row r="982">
-      <c r="C982" s="17"/>
+      <c r="C982" s="19"/>
     </row>
     <row r="983">
-      <c r="C983" s="17"/>
+      <c r="C983" s="19"/>
     </row>
     <row r="984">
-      <c r="C984" s="17"/>
+      <c r="C984" s="19"/>
     </row>
     <row r="985">
-      <c r="C985" s="17"/>
+      <c r="C985" s="19"/>
     </row>
     <row r="986">
-      <c r="C986" s="17"/>
+      <c r="C986" s="19"/>
     </row>
     <row r="987">
-      <c r="C987" s="17"/>
+      <c r="C987" s="19"/>
     </row>
     <row r="988">
-      <c r="C988" s="17"/>
+      <c r="C988" s="19"/>
     </row>
     <row r="989">
-      <c r="C989" s="17"/>
+      <c r="C989" s="19"/>
     </row>
     <row r="990">
-      <c r="C990" s="17"/>
+      <c r="C990" s="19"/>
     </row>
     <row r="991">
-      <c r="C991" s="17"/>
+      <c r="C991" s="19"/>
     </row>
     <row r="992">
-      <c r="C992" s="17"/>
+      <c r="C992" s="19"/>
     </row>
     <row r="993">
-      <c r="C993" s="17"/>
+      <c r="C993" s="19"/>
     </row>
     <row r="994">
-      <c r="C994" s="17"/>
+      <c r="C994" s="19"/>
     </row>
     <row r="995">
-      <c r="C995" s="17"/>
+      <c r="C995" s="19"/>
     </row>
     <row r="996">
-      <c r="C996" s="17"/>
+      <c r="C996" s="19"/>
     </row>
     <row r="997">
-      <c r="C997" s="17"/>
+      <c r="C997" s="19"/>
     </row>
     <row r="998">
-      <c r="C998" s="17"/>
+      <c r="C998" s="19"/>
     </row>
     <row r="999">
-      <c r="C999" s="17"/>
+      <c r="C999" s="19"/>
     </row>
     <row r="1000">
-      <c r="C1000" s="17"/>
+      <c r="C1000" s="19"/>
     </row>
     <row r="1001">
-      <c r="C1001" s="17"/>
+      <c r="C1001" s="19"/>
     </row>
     <row r="1002">
-      <c r="C1002" s="17"/>
+      <c r="C1002" s="19"/>
     </row>
     <row r="1003">
-      <c r="C1003" s="17"/>
+      <c r="C1003" s="19"/>
     </row>
     <row r="1004">
-      <c r="C1004" s="17"/>
+      <c r="C1004" s="19"/>
     </row>
     <row r="1005">
-      <c r="C1005" s="17"/>
+      <c r="C1005" s="19"/>
     </row>
     <row r="1006">
-      <c r="C1006" s="17"/>
+      <c r="C1006" s="19"/>
     </row>
     <row r="1007">
-      <c r="C1007" s="17"/>
+      <c r="C1007" s="19"/>
     </row>
     <row r="1008">
-      <c r="C1008" s="17"/>
+      <c r="C1008" s="19"/>
+    </row>
+    <row r="1009">
+      <c r="C1009" s="19"/>
+    </row>
+    <row r="1010">
+      <c r="C1010" s="19"/>
+    </row>
+    <row r="1011">
+      <c r="C1011" s="19"/>
+    </row>
+    <row r="1012">
+      <c r="C1012" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A106:C106"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Нажмите здесь и введите значение из списка." sqref="C5:C19 C21:C35 C37:C52 C54:C87 C89:C93 C95:C101 C103:C104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Нажмите здесь и введите значение из списка." sqref="C5:C21 C23:C39 C41:C56 C58:C91 C93:C97 C99:C105 C107:C108">
       <formula1>"PASS,FAIL,TO DO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -338,7 +338,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,14 +347,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6E0B4"/>
         <bgColor rgb="FFC6E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
     <fill>
@@ -480,7 +486,7 @@
     <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -494,16 +500,16 @@
     <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="7" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
